--- a/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
+++ b/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
   <si>
     <t>功能模块</t>
   </si>
@@ -548,16 +548,19 @@
 3、新增发起借机、还机确认、发起还机成功
 4、目标收件人收到保养单邮件</t>
   </si>
+  <si>
+    <t>审核流</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -601,26 +604,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -643,23 +630,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,32 +652,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,6 +684,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -726,8 +699,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,9 +715,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,13 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,13 +809,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,25 +857,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,25 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,31 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,19 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,17 +982,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1001,15 +993,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,6 +1021,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1049,15 +1041,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,153 +1059,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,9 +1615,9 @@
   <dimension ref="A1:AE143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3374,26 +3377,26 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
     </row>
-    <row r="44" ht="40.5" spans="1:31">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
+    <row r="44" ht="18" customHeight="1" spans="1:31">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>

--- a/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
+++ b/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="151">
   <si>
     <t>功能模块</t>
   </si>
@@ -551,15 +551,242 @@
   <si>
     <t>审核流</t>
   </si>
+  <si>
+    <t>保养点检标准</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、保养点检管理&gt;保养点检标准点击新增，键入目标基本信息，选择目标设备（或tooling），维护养护项目信息，点击保存；
+4、勾选目标单据点击启用，选择下一审核流审批人员，点击确定；
+5、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+6、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、保养点检标准新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>复机复检标准</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、复机复检管理&gt;复机复检标准点击新增，键入目标基本信息，选择目标设备（或tooling），维护养护项目信息，点击保存；
+4、勾选目标单据点击启用，选择下一审核流审批人员，点击确定；
+5、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+6、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、复机复检标准新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>保养待复机复检</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、保养点检管理&gt;保养点检维护点击新增，键入目标基本信息，选择目标设备（或tooling），选择目标保养点检标准，点击保存，点击复机；
+4、复机复检管理&gt;保养待复机复检，选择带过来目标单据，维护目标信息，点击复机ok，选择下一审核流审批人员，点击确定；
+5、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+6、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、保养点检维护新增成功；
+4、保养待复机复检维护成功
+5、启用选择下一审批人成功；
+6、下一审核人审批成功；
+7、单据启用成功</t>
+  </si>
+  <si>
+    <t>待维修报修单</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、报修维修管理&gt;报修单点击新增，键入目标基本信息，选择目标设备（或tooling），选择目标保养点检标准，点击保存，点击复机；
+4、报修维修管理&gt;待维修报修单，选择带过来目标单据，维护目标信息，点击维修完成，点击不复机，选择下一审核流审批人员，点击确定；
+5、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+6、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、报修单新增成功；
+4、待维修报修单维护成功
+5、启用选择下一审批人成功；
+6、下一审核人审批成功；
+7、单据启用成功</t>
+  </si>
+  <si>
+    <t>维修复机复检</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、报修维修管理&gt;报修单点击新增，键入目标基本信息，选择目标设备（或tooling），选择目标保养点检标准，点击保存，点击复机；
+4、报修维修管理&gt;待维修报修单，选择带过来目标单据，维护目标信息，点击维修完成，点击复机；
+5、复机复检管理&gt;维修待复机复检，选择带过来的目标单据，维护目标信息，选择下一审核流审批人员，点击确定；
+6、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+7、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、报修单新增成功；
+4、待维修报修单维护成功
+5、维修待复机附件维护成功
+6、启用选择下一审批人成功；
+7、下一审核人审批成功；
+8、单据启用成功</t>
+  </si>
+  <si>
+    <t>盘点单</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、盘点作业&gt;盘点单点击新增，选择待盘点资产，盘点确认，选择下一审核流审批人员，点击确定；
+4、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+5、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、盘点单新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>调拨作业转出</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、调拨作业&gt;调拨单转出申请点击新增，维护基础信息，点击提交选择下一审核流审批人员，点击确定；
+4、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+5、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、调拨单转出申请新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>调拨作业转入</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、调拨作业&gt;调拨单转入申请点击新增，维护基础信息，点击提交选择下一审核流审批人员，点击确定；
+4、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+5、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、调拨单转入申请新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>借机单</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、借机管理&gt;借机单点击发起借机，键入目标基本信息，选择目标设备，选择目标保养点检标准，点击提交，选择下一审核流审批人员，点击确定；
+4、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+5、查看单据审批状态
+6、勾选目标借机单据，点击借机确认，维护目标信息，点击提交
+7、勾选目标借机单据，点击开始归还，维护目标信息，点击提交
+8、勾选目标借机单据，点击归还确认，维护目标信息，点击提交</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、借机单新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功
+7、借机确认、发起归还、归还确认成功</t>
+  </si>
+  <si>
+    <t>Buyoff 标准</t>
+  </si>
+  <si>
+    <t>1、用户已登录
+2、数据库连接正常
+4、系统正常</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、Buyoff作业&gt;Buyoff检验标准点击新增，维护基础信息，点击提交选择下一审核流审批人员，点击确定；
+4、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+5、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、Buyoff检验标准新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>Tooling报废</t>
+  </si>
+  <si>
+    <t>1、用户已登录
+2、数据库连接正常
+5、系统正常</t>
+  </si>
+  <si>
+    <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
+2、构造需要的设备或tooling数据；
+3、Tooling管理&gt;Tooling报废点击新增，维护基础信息，点击提交选择下一审核流审批人员，点击确定；
+4、登录选中的下一审核流审核人员账户，在待办任务中审批审核流，若有下一审批人，选择待审核人员，点击确认；
+5、查看单据审批状态</t>
+  </si>
+  <si>
+    <t>1、审核流配置成功；
+2、目标数据构造成功；
+3、tooling报废新增成功；
+4、启用选择下一审批人成功；
+5、下一审核人审批成功；
+6、单据启用成功</t>
+  </si>
+  <si>
+    <t>1、用户已登录
+2、数据库连接正常
+6、系统正常</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -602,9 +829,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,25 +887,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,16 +903,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,35 +934,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,14 +959,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -739,14 +966,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,13 +1000,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,55 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,13 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,37 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,25 +1162,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,6 +1209,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -997,6 +1248,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1008,39 +1268,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,148 +1311,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,10 +1841,10 @@
   <sheetPr/>
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3412,17 +3639,23 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
     </row>
-    <row r="45" ht="40.5" spans="1:31">
+    <row r="45" ht="189" spans="1:31">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="E45" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="18"/>
@@ -3447,17 +3680,23 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
     </row>
-    <row r="46" ht="40.5" spans="1:31">
+    <row r="46" ht="175.5" spans="1:31">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="E46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="18"/>
@@ -3482,17 +3721,23 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
-    <row r="47" ht="40.5" spans="1:31">
+    <row r="47" ht="189" spans="1:31">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="E47" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="18"/>
@@ -3517,17 +3762,23 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
     </row>
-    <row r="48" ht="40.5" spans="1:31">
+    <row r="48" ht="189" spans="1:31">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="E48" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
       <c r="K48" s="18"/>
@@ -3552,17 +3803,23 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
     </row>
-    <row r="49" ht="40.5" spans="1:31">
+    <row r="49" ht="216" spans="1:31">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="E49" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
       <c r="K49" s="18"/>
@@ -3587,17 +3844,23 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
     </row>
-    <row r="50" ht="40.5" spans="1:31">
+    <row r="50" ht="135" spans="1:31">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="E50" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="18"/>
@@ -3622,17 +3885,23 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
     </row>
-    <row r="51" ht="40.5" spans="1:31">
+    <row r="51" ht="135" spans="1:31">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="E51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="G51" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="18"/>
@@ -3657,17 +3926,23 @@
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
     </row>
-    <row r="52" ht="40.5" spans="1:31">
+    <row r="52" ht="135" spans="1:31">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="15"/>
+      <c r="D52" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="E52" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="18"/>
@@ -3692,17 +3967,23 @@
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
     </row>
-    <row r="53" ht="40.5" spans="1:31">
+    <row r="53" ht="229.5" spans="1:31">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E53" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="G53" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="18"/>
@@ -3727,15 +4008,23 @@
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" ht="148.5" spans="1:31">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
+      <c r="D54" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="18"/>
@@ -3760,15 +4049,23 @@
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" ht="148.5" spans="1:31">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16"/>
+      <c r="D55" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="G55" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="18"/>
@@ -3793,12 +4090,14 @@
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" ht="40.5" spans="1:31">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="12"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
+      <c r="E56" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>

--- a/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
+++ b/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="235">
   <si>
     <t>功能模块</t>
   </si>
@@ -731,11 +731,6 @@
     <t>Buyoff 标准</t>
   </si>
   <si>
-    <t>1、用户已登录
-2、数据库连接正常
-4、系统正常</t>
-  </si>
-  <si>
     <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
 2、构造需要的设备或tooling数据；
 3、Buyoff作业&gt;Buyoff检验标准点击新增，维护基础信息，点击提交选择下一审核流审批人员，点击确定；
@@ -754,11 +749,6 @@
     <t>Tooling报废</t>
   </si>
   <si>
-    <t>1、用户已登录
-2、数据库连接正常
-5、系统正常</t>
-  </si>
-  <si>
     <t>1、系统配置&gt;工作流程配置&gt;流程模型设计审核流程，部署审核流程实例，流程配置中新增审核流并选择目标审核流模型；
 2、构造需要的设备或tooling数据；
 3、Tooling管理&gt;Tooling报废点击新增，维护基础信息，点击提交选择下一审核流审批人员，点击确定；
@@ -774,9 +764,383 @@
 6、单据启用成功</t>
   </si>
   <si>
-    <t>1、用户已登录
-2、数据库连接正常
-6、系统正常</t>
+    <t>SOW外</t>
+  </si>
+  <si>
+    <t>设备维修记录表</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入报表查询选项
+2、点击设备维修记录表
+3、查看界面返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、点击设备维修记录表成功
+3、报表数据显示合理</t>
+  </si>
+  <si>
+    <t>设备保养记录表</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入报表查询选项
+2、点击设备保养记录表
+3、查看界面返回</t>
+  </si>
+  <si>
+    <t>调拨单转入申请--附件上传</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入调拨单转入页
+2、新增调拨单，选择附件上传
+3、点击保存，查看界面返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、附件上传成功，保存成功</t>
+  </si>
+  <si>
+    <t>调拨单转出申请--附件上传</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入调拨单转出页
+2、新增调拨单，选择附件上传
+3、点击保存，查看界面返回</t>
+  </si>
+  <si>
+    <t>报修单--去除卡控</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入报修单页
+2、新增报修单，保存
+3、登录另一账号，进入报修单
+4、查看页面显示</t>
+  </si>
+  <si>
+    <t>1、A账号登录成功
+2、报修单新建成功
+3、B账号登录成功
+4、B账号可看到A账号创建的报修单</t>
+  </si>
+  <si>
+    <t>借机单--设备编号查询</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入借机单页面
+2、点击发起借机，新增机台
+3、通过机台编号查询
+4、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、机台编号查询成功
+3、目标机台召回成功</t>
+  </si>
+  <si>
+    <t>借机单--附件上传</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入借机单页面
+2、点击发起借机，新增机台
+3、点击详情行附件上传
+4、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、详情行附件上传成功</t>
+  </si>
+  <si>
+    <t>借机单--申请人查询</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入借机单页面
+2、通过申请人查询
+3、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、申请人查询成功
+3、目标借机单召回成功</t>
+  </si>
+  <si>
+    <t>借机单--设备保养</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入借机单页面
+2、新增借机单、借机确认、发起归还
+3、点击附件上传
+4、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、发起借机、借机确认成功
+3、发起归还页进入成功
+4、附件上传成功</t>
+  </si>
+  <si>
+    <t>超时还机</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入借机单页面
+2、借机确认、发起归还
+3、选择实际借机时间大于预计借机时间
+4、点击提交，查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、发起借机、借机确认成功
+3、发起归还页进入成功
+4、设置实际借机时间大于预计借机时间
+5、点击提交成功，弹出审核人选择框</t>
+  </si>
+  <si>
+    <t>tooling归还</t>
+  </si>
+  <si>
+    <t>buyoff检验标准</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入buyoff检验标准页面
+2、点击新增，选则tooling归还类型
+3、点击提交，查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、buyoff检验标准在建立成功</t>
+  </si>
+  <si>
+    <t>buyoff检验项目</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入buyoff检验项目页面
+2、点击新增，选则tooling归还标准类型
+3、选择（Golden、kit、Loadboard、Socket）类别tooling
+4、点击提交，查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、buyoff检验项目在建立成功</t>
+  </si>
+  <si>
+    <t>机台归还-Golden、kit、Loadboard、Socket</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台归还页面
+2、点击新增，选则Golden、kit、Loadboard、Socket目标机台
+3、点击检验按钮，填写数据
+4、点击提交，查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、检验按钮可编辑
+3、机台归还成功</t>
+  </si>
+  <si>
+    <t>机台归还-非Golden、kit、Loadboard、Socket</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台归还页面
+2、点击新增，选则非Golden、kit、Loadboard、Socket目标机台
+3、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、检验按钮不可编辑
+3、机台归还成功</t>
+  </si>
+  <si>
+    <t>机台归还-检验选择NG</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台归还页面
+2、点击新增，选则Golden、kit、Loadboard、Socket目标机台
+3、点击检验按钮，填写数据，选择NG
+4、点击提交，查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、检验按钮可编辑，数据填写成功
+3、机台归还成功，tooling状态变为维修</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>设备保养计划表</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备保养计划表
+2、点击查询
+3、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、点击查询成功
+3、数据返回成功，以日期格式显示</t>
+  </si>
+  <si>
+    <t>设备保养计划表--导出</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备保养计划表
+2、点击导出
+3、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、点击导出成功
+3、excel格式导出成功，数据显示正确</t>
+  </si>
+  <si>
+    <t>待维修报修单-开始时间</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新建报修单，待分配，进入待维修报修单
+3、选择维修类别，点击维修响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建报修单成功，点击维修响应成功
+3、响应时间，开始时间带出成功</t>
+  </si>
+  <si>
+    <t>待维修报修单-结束时间</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新建报修单，待分配，进入待维修报修单
+3、选择维修填报，键入相应数据
+4、点击维修完成</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建报修单成功，点击维修完成成功
+3、结束时间带出成功
+4、维修工时，开始、结束时间去除</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备维修表
+2、点击查询
+3、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、点击查询成功
+3、数据返回成功
+4、各节点数据计算正确，停机时长：结案时间-报修时间，维修时长：维修结束时间-维修开始时间，待维修时长：响应时间-报修时间，待结案时长：结案时间-维修完成时间</t>
+  </si>
+  <si>
+    <t>保养点检维护</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入保养点检维护页
+2、新建保养单据，填写养护登记信息
+3、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建保养单据成功
+3、养护登记开始/结束时间去除</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单
+2、新建报修单，分别置待分配，待响应，维修中，验证中状态单据
+3、用户中心配置相应用户邮箱</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建报修单成功
+3、维修超时3 小时发给组长（维修群组组长）超时5小时 发给 工程部经理，抄送给组长
+4、单据状态：待验证3小时发给 提单人组长（人员直属主管需配置组长）5小时发给提单人经理抄送给组长
+5、邮件提醒时，时间累加</t>
+  </si>
+  <si>
+    <t>机台领用</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台领用页面
+2、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、机台领用列表中的 领用机台 字段显示机台编号</t>
+  </si>
+  <si>
+    <t>Tooling明细</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling明细页面
+2、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、：Tooling使用状态为在库状态的，领用机台不显示机台号</t>
+  </si>
+  <si>
+    <t>tooling入库</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling入库页面
+2、新建入库领用，点击保存
+3、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、入库领用点击保存时卡控release人
+3、界面显示release人信息</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台领用页面
+2、新建机台领用，点击保存
+3、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、机台领用点击保存时卡控领用人
+3、界面显示领用人信息</t>
+  </si>
+  <si>
+    <t>机台归还</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台归还页面
+2、新建机台归还，点击保存
+3、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、机台归还点击保存时卡控归还人
+3、界面显示归还人信息</t>
+  </si>
+  <si>
+    <t>tooling入库首页</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling入库页面
+2、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、界面显示release人，单据时间，创建人，创建时间正确</t>
+  </si>
+  <si>
+    <t>机台领用首页</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、界面显示领用人，单据时间，创建人，创建时间正确</t>
+  </si>
+  <si>
+    <t>机台归还首页</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台归还页面
+2、查看相应数据返回</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、界面显示归还人，单据时间，创建人，创建时间正确</t>
   </si>
 </sst>
 </file>
@@ -784,9 +1148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -835,25 +1199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,6 +1220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -887,9 +1258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,7 +1274,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -919,14 +1289,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -934,8 +1296,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -950,23 +1328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,25 +1370,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,37 +1430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,13 +1454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,31 +1508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,31 +1538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,26 +1573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,8 +1599,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1272,6 +1623,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1287,22 +1656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,148 +1675,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1505,8 +1869,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1517,8 +1881,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1839,18 +2203,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE143"/>
+  <dimension ref="A1:AE142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.75" style="3" customWidth="1"/>
@@ -4016,14 +4380,14 @@
         <v>142</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -4054,17 +4418,17 @@
       <c r="B55" s="10"/>
       <c r="C55" s="12"/>
       <c r="D55" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -4090,26 +4454,26 @@
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
     </row>
-    <row r="56" ht="40.5" spans="1:31">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
+    <row r="56" ht="18" customHeight="1" spans="1:31">
+      <c r="A56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
@@ -4125,15 +4489,23 @@
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" ht="40.5" spans="1:31">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="18"/>
@@ -4158,15 +4530,23 @@
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" ht="40.5" spans="1:31">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
+      <c r="D58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="G58" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="18"/>
@@ -4191,15 +4571,23 @@
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" ht="40.5" spans="1:31">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16"/>
+      <c r="D59" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="18"/>
@@ -4224,15 +4612,23 @@
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" ht="40.5" spans="1:31">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="16"/>
+      <c r="D60" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="G60" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="18"/>
@@ -4257,15 +4653,23 @@
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" ht="54" spans="1:31">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="G61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
@@ -4290,15 +4694,23 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" ht="54" spans="1:31">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="16"/>
+      <c r="D62" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="18"/>
@@ -4323,15 +4735,23 @@
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" ht="54" spans="1:31">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="16"/>
+      <c r="D63" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
       <c r="K63" s="18"/>
@@ -4356,15 +4776,23 @@
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" ht="40.5" spans="1:31">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
@@ -4389,15 +4817,23 @@
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" ht="54" spans="1:31">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F65" s="14"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
       <c r="K65" s="18"/>
@@ -4422,15 +4858,23 @@
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" ht="67.5" spans="1:31">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F66" s="14"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
@@ -4455,24 +4899,26 @@
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
     </row>
-    <row r="67" spans="1:31">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
+    <row r="67" ht="18" customHeight="1" spans="1:31">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
@@ -4488,15 +4934,23 @@
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" ht="40.5" spans="1:31">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="G68" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
@@ -4521,15 +4975,23 @@
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" ht="67.5" spans="1:31">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F69" s="14"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="G69" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="18"/>
@@ -4554,15 +5016,23 @@
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" ht="67.5" spans="1:31">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F70" s="14"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
@@ -4587,15 +5057,23 @@
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" ht="54" spans="1:31">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F71" s="14"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="G71" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="18"/>
@@ -4620,15 +5098,23 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" ht="67.5" spans="1:31">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F72" s="14"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="G72" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
@@ -4653,24 +5139,26 @@
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
     </row>
-    <row r="73" spans="1:31">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
+    <row r="73" ht="18" customHeight="1" spans="1:31">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
@@ -4686,15 +5174,23 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" ht="40.5" spans="1:31">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F74" s="14"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="G74" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="18"/>
@@ -4719,15 +5215,23 @@
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" ht="40.5" spans="1:31">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F75" s="14"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="G75" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="18"/>
@@ -4752,15 +5256,23 @@
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" ht="40.5" spans="1:31">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F76" s="14"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="G76" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="18"/>
@@ -4785,15 +5297,23 @@
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" ht="54" spans="1:31">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F77" s="14"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+      <c r="G77" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="18"/>
@@ -4818,15 +5338,23 @@
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" ht="81" spans="1:31">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F78" s="14"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="G78" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>207</v>
+      </c>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="18"/>
@@ -4851,15 +5379,23 @@
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" ht="40.5" spans="1:31">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F79" s="14"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="G79" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="18"/>
@@ -4884,15 +5420,23 @@
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" ht="94.5" spans="1:31">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F80" s="14"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
+      <c r="G80" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
       <c r="K80" s="18"/>
@@ -4917,15 +5461,23 @@
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" ht="40.5" spans="1:31">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F81" s="14"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+      <c r="G81" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
       <c r="K81" s="18"/>
@@ -4950,15 +5502,23 @@
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" ht="40.5" spans="1:31">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F82" s="14"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
+      <c r="G82" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="18"/>
@@ -4983,15 +5543,23 @@
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" ht="40.5" spans="1:31">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F83" s="14"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="G83" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="18"/>
@@ -5016,15 +5584,23 @@
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" ht="40.5" spans="1:31">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F84" s="14"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
+      <c r="G84" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="18"/>
@@ -5049,15 +5625,23 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" ht="40.5" spans="1:31">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F85" s="14"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="G85" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="18"/>
@@ -5082,15 +5666,23 @@
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" ht="40.5" spans="1:31">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F86" s="14"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="G86" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="18"/>
@@ -5115,15 +5707,23 @@
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" ht="40.5" spans="1:31">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F87" s="14"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="G87" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>231</v>
+      </c>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
       <c r="K87" s="18"/>
@@ -5148,15 +5748,23 @@
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" ht="40.5" spans="1:31">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
+      <c r="G88" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="18"/>
@@ -5181,12 +5789,14 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" ht="40.5" spans="1:31">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
-      <c r="C89" s="20"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="16"/>
+      <c r="E89" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -5214,12 +5824,14 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" ht="40.5" spans="1:31">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
-      <c r="C90" s="20"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="16"/>
+      <c r="E90" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F90" s="14"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
@@ -5247,12 +5859,14 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" ht="40.5" spans="1:31">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
-      <c r="C91" s="20"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="16"/>
+      <c r="E91" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F91" s="14"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
@@ -5283,9 +5897,9 @@
     <row r="92" spans="1:31">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
-      <c r="C92" s="20"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="16"/>
+      <c r="E92" s="20"/>
       <c r="F92" s="14"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
@@ -5316,9 +5930,9 @@
     <row r="93" spans="1:31">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
-      <c r="C93" s="20"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="15"/>
-      <c r="E93" s="16"/>
+      <c r="E93" s="20"/>
       <c r="F93" s="14"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
@@ -5349,9 +5963,9 @@
     <row r="94" spans="1:31">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
-      <c r="C94" s="20"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="16"/>
+      <c r="E94" s="20"/>
       <c r="F94" s="14"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
@@ -5382,9 +5996,9 @@
     <row r="95" spans="1:31">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
-      <c r="C95" s="20"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="15"/>
-      <c r="E95" s="16"/>
+      <c r="E95" s="20"/>
       <c r="F95" s="14"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
@@ -5415,9 +6029,9 @@
     <row r="96" spans="1:31">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
-      <c r="C96" s="20"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="15"/>
-      <c r="E96" s="16"/>
+      <c r="E96" s="20"/>
       <c r="F96" s="14"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
@@ -5448,9 +6062,9 @@
     <row r="97" spans="1:31">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
-      <c r="C97" s="20"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="15"/>
-      <c r="E97" s="16"/>
+      <c r="E97" s="20"/>
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
@@ -5481,9 +6095,9 @@
     <row r="98" spans="1:31">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="20"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="15"/>
-      <c r="E98" s="16"/>
+      <c r="E98" s="20"/>
       <c r="F98" s="14"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
@@ -5514,9 +6128,9 @@
     <row r="99" spans="1:31">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
-      <c r="C99" s="20"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="15"/>
-      <c r="E99" s="16"/>
+      <c r="E99" s="20"/>
       <c r="F99" s="14"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -5547,9 +6161,9 @@
     <row r="100" spans="1:31">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="20"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="15"/>
-      <c r="E100" s="16"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="14"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
@@ -5580,9 +6194,9 @@
     <row r="101" spans="1:31">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
-      <c r="C101" s="20"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="15"/>
-      <c r="E101" s="16"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="14"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -5613,9 +6227,9 @@
     <row r="102" spans="1:31">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
-      <c r="C102" s="20"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="15"/>
-      <c r="E102" s="16"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="14"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -5646,11 +6260,11 @@
     <row r="103" spans="1:31">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
-      <c r="C103" s="20"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="15"/>
-      <c r="E103" s="16"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="14"/>
-      <c r="G103" s="15"/>
+      <c r="G103" s="20"/>
       <c r="H103" s="15"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -5679,11 +6293,11 @@
     <row r="104" spans="1:31">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="20"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="15"/>
-      <c r="E104" s="16"/>
+      <c r="E104" s="20"/>
       <c r="F104" s="14"/>
-      <c r="G104" s="16"/>
+      <c r="G104" s="20"/>
       <c r="H104" s="15"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
@@ -5712,11 +6326,11 @@
     <row r="105" spans="1:31">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
-      <c r="C105" s="20"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="15"/>
-      <c r="E105" s="16"/>
+      <c r="E105" s="20"/>
       <c r="F105" s="14"/>
-      <c r="G105" s="16"/>
+      <c r="G105" s="20"/>
       <c r="H105" s="15"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
@@ -5745,11 +6359,11 @@
     <row r="106" spans="1:31">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
-      <c r="C106" s="20"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="15"/>
-      <c r="E106" s="16"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="14"/>
-      <c r="G106" s="16"/>
+      <c r="G106" s="20"/>
       <c r="H106" s="15"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -5778,11 +6392,11 @@
     <row r="107" spans="1:31">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="20"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="15"/>
-      <c r="E107" s="16"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="14"/>
-      <c r="G107" s="16"/>
+      <c r="G107" s="20"/>
       <c r="H107" s="15"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
@@ -5811,11 +6425,11 @@
     <row r="108" spans="1:31">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
-      <c r="C108" s="20"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="15"/>
-      <c r="E108" s="16"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="14"/>
-      <c r="G108" s="16"/>
+      <c r="G108" s="20"/>
       <c r="H108" s="15"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
@@ -5844,11 +6458,11 @@
     <row r="109" spans="1:31">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
-      <c r="C109" s="20"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="15"/>
-      <c r="E109" s="16"/>
+      <c r="E109" s="20"/>
       <c r="F109" s="14"/>
-      <c r="G109" s="16"/>
+      <c r="G109" s="20"/>
       <c r="H109" s="15"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
@@ -5877,11 +6491,11 @@
     <row r="110" spans="1:31">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
-      <c r="C110" s="20"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="15"/>
-      <c r="E110" s="16"/>
+      <c r="E110" s="20"/>
       <c r="F110" s="14"/>
-      <c r="G110" s="16"/>
+      <c r="G110" s="20"/>
       <c r="H110" s="15"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -5910,11 +6524,11 @@
     <row r="111" spans="1:31">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
-      <c r="C111" s="20"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="15"/>
-      <c r="E111" s="16"/>
+      <c r="E111" s="20"/>
       <c r="F111" s="14"/>
-      <c r="G111" s="16"/>
+      <c r="G111" s="20"/>
       <c r="H111" s="15"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -5943,11 +6557,11 @@
     <row r="112" spans="1:31">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
-      <c r="C112" s="20"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="15"/>
-      <c r="E112" s="16"/>
+      <c r="E112" s="20"/>
       <c r="F112" s="14"/>
-      <c r="G112" s="16"/>
+      <c r="G112" s="20"/>
       <c r="H112" s="15"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -5976,11 +6590,11 @@
     <row r="113" spans="1:31">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
-      <c r="C113" s="20"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="15"/>
-      <c r="E113" s="16"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="14"/>
-      <c r="G113" s="16"/>
+      <c r="G113" s="20"/>
       <c r="H113" s="15"/>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
@@ -6009,11 +6623,11 @@
     <row r="114" spans="1:31">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
-      <c r="C114" s="20"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="15"/>
-      <c r="E114" s="16"/>
+      <c r="E114" s="20"/>
       <c r="F114" s="14"/>
-      <c r="G114" s="16"/>
+      <c r="G114" s="20"/>
       <c r="H114" s="15"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
@@ -6042,11 +6656,11 @@
     <row r="115" spans="1:31">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
-      <c r="C115" s="20"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="15"/>
-      <c r="E115" s="16"/>
+      <c r="E115" s="20"/>
       <c r="F115" s="14"/>
-      <c r="G115" s="16"/>
+      <c r="G115" s="20"/>
       <c r="H115" s="15"/>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
@@ -6075,11 +6689,11 @@
     <row r="116" spans="1:31">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
-      <c r="C116" s="20"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="15"/>
-      <c r="E116" s="16"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="14"/>
-      <c r="G116" s="16"/>
+      <c r="G116" s="20"/>
       <c r="H116" s="15"/>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
@@ -6108,11 +6722,11 @@
     <row r="117" spans="1:31">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
-      <c r="C117" s="20"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="15"/>
-      <c r="E117" s="16"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="14"/>
-      <c r="G117" s="16"/>
+      <c r="G117" s="20"/>
       <c r="H117" s="15"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -6141,11 +6755,11 @@
     <row r="118" spans="1:31">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
-      <c r="C118" s="20"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="15"/>
-      <c r="E118" s="16"/>
+      <c r="E118" s="20"/>
       <c r="F118" s="14"/>
-      <c r="G118" s="16"/>
+      <c r="G118" s="20"/>
       <c r="H118" s="15"/>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
@@ -6174,11 +6788,11 @@
     <row r="119" spans="1:31">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
-      <c r="C119" s="20"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="15"/>
-      <c r="E119" s="16"/>
+      <c r="E119" s="20"/>
       <c r="F119" s="14"/>
-      <c r="G119" s="16"/>
+      <c r="G119" s="20"/>
       <c r="H119" s="15"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -6207,11 +6821,11 @@
     <row r="120" spans="1:31">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
-      <c r="C120" s="20"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="15"/>
-      <c r="E120" s="16"/>
+      <c r="E120" s="20"/>
       <c r="F120" s="14"/>
-      <c r="G120" s="16"/>
+      <c r="G120" s="20"/>
       <c r="H120" s="15"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
@@ -6240,11 +6854,11 @@
     <row r="121" spans="1:31">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
-      <c r="C121" s="20"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="15"/>
-      <c r="E121" s="16"/>
+      <c r="E121" s="20"/>
       <c r="F121" s="14"/>
-      <c r="G121" s="16"/>
+      <c r="G121" s="20"/>
       <c r="H121" s="15"/>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -6273,11 +6887,11 @@
     <row r="122" spans="1:31">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
-      <c r="C122" s="20"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="15"/>
-      <c r="E122" s="16"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="14"/>
-      <c r="G122" s="16"/>
+      <c r="G122" s="20"/>
       <c r="H122" s="15"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -6306,11 +6920,11 @@
     <row r="123" spans="1:31">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
-      <c r="C123" s="20"/>
+      <c r="C123" s="16"/>
       <c r="D123" s="15"/>
-      <c r="E123" s="16"/>
+      <c r="E123" s="20"/>
       <c r="F123" s="14"/>
-      <c r="G123" s="16"/>
+      <c r="G123" s="20"/>
       <c r="H123" s="15"/>
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
@@ -6339,11 +6953,11 @@
     <row r="124" spans="1:31">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
-      <c r="C124" s="20"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="15"/>
-      <c r="E124" s="16"/>
+      <c r="E124" s="20"/>
       <c r="F124" s="14"/>
-      <c r="G124" s="16"/>
+      <c r="G124" s="20"/>
       <c r="H124" s="15"/>
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
@@ -6372,11 +6986,11 @@
     <row r="125" spans="1:31">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
-      <c r="C125" s="20"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="15"/>
-      <c r="E125" s="16"/>
+      <c r="E125" s="20"/>
       <c r="F125" s="14"/>
-      <c r="G125" s="16"/>
+      <c r="G125" s="20"/>
       <c r="H125" s="15"/>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
@@ -6405,11 +7019,11 @@
     <row r="126" spans="1:31">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
-      <c r="C126" s="20"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="15"/>
-      <c r="E126" s="16"/>
+      <c r="E126" s="20"/>
       <c r="F126" s="14"/>
-      <c r="G126" s="16"/>
+      <c r="G126" s="20"/>
       <c r="H126" s="15"/>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
@@ -6438,11 +7052,11 @@
     <row r="127" spans="1:31">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
-      <c r="C127" s="20"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="15"/>
-      <c r="E127" s="16"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="14"/>
-      <c r="G127" s="16"/>
+      <c r="G127" s="20"/>
       <c r="H127" s="15"/>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
@@ -6471,11 +7085,11 @@
     <row r="128" spans="1:31">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
-      <c r="C128" s="20"/>
+      <c r="C128" s="16"/>
       <c r="D128" s="15"/>
-      <c r="E128" s="16"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="14"/>
-      <c r="G128" s="16"/>
+      <c r="G128" s="20"/>
       <c r="H128" s="15"/>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
@@ -6504,11 +7118,11 @@
     <row r="129" spans="1:31">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
-      <c r="C129" s="20"/>
+      <c r="C129" s="16"/>
       <c r="D129" s="15"/>
-      <c r="E129" s="16"/>
+      <c r="E129" s="20"/>
       <c r="F129" s="14"/>
-      <c r="G129" s="16"/>
+      <c r="G129" s="20"/>
       <c r="H129" s="15"/>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
@@ -6537,11 +7151,11 @@
     <row r="130" spans="1:31">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
-      <c r="C130" s="20"/>
+      <c r="C130" s="16"/>
       <c r="D130" s="15"/>
-      <c r="E130" s="16"/>
+      <c r="E130" s="20"/>
       <c r="F130" s="14"/>
-      <c r="G130" s="16"/>
+      <c r="G130" s="20"/>
       <c r="H130" s="15"/>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -6570,11 +7184,11 @@
     <row r="131" spans="1:31">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
-      <c r="C131" s="20"/>
+      <c r="C131" s="16"/>
       <c r="D131" s="15"/>
-      <c r="E131" s="16"/>
+      <c r="E131" s="20"/>
       <c r="F131" s="14"/>
-      <c r="G131" s="16"/>
+      <c r="G131" s="20"/>
       <c r="H131" s="15"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
@@ -6603,11 +7217,11 @@
     <row r="132" spans="1:31">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
-      <c r="C132" s="20"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="15"/>
-      <c r="E132" s="16"/>
+      <c r="E132" s="20"/>
       <c r="F132" s="14"/>
-      <c r="G132" s="16"/>
+      <c r="G132" s="20"/>
       <c r="H132" s="15"/>
       <c r="I132" s="17"/>
       <c r="J132" s="17"/>
@@ -6636,11 +7250,11 @@
     <row r="133" spans="1:31">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
-      <c r="C133" s="20"/>
+      <c r="C133" s="16"/>
       <c r="D133" s="15"/>
-      <c r="E133" s="16"/>
+      <c r="E133" s="20"/>
       <c r="F133" s="14"/>
-      <c r="G133" s="16"/>
+      <c r="G133" s="20"/>
       <c r="H133" s="15"/>
       <c r="I133" s="17"/>
       <c r="J133" s="17"/>
@@ -6669,11 +7283,11 @@
     <row r="134" spans="1:31">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
-      <c r="C134" s="20"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="15"/>
-      <c r="E134" s="16"/>
+      <c r="E134" s="20"/>
       <c r="F134" s="14"/>
-      <c r="G134" s="16"/>
+      <c r="G134" s="20"/>
       <c r="H134" s="15"/>
       <c r="I134" s="17"/>
       <c r="J134" s="17"/>
@@ -6702,11 +7316,11 @@
     <row r="135" spans="1:31">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
-      <c r="C135" s="20"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="15"/>
-      <c r="E135" s="16"/>
+      <c r="E135" s="20"/>
       <c r="F135" s="14"/>
-      <c r="G135" s="16"/>
+      <c r="G135" s="20"/>
       <c r="H135" s="15"/>
       <c r="I135" s="17"/>
       <c r="J135" s="17"/>
@@ -6735,11 +7349,11 @@
     <row r="136" spans="1:31">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
-      <c r="C136" s="20"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="15"/>
-      <c r="E136" s="16"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="14"/>
-      <c r="G136" s="16"/>
+      <c r="G136" s="20"/>
       <c r="H136" s="15"/>
       <c r="I136" s="17"/>
       <c r="J136" s="17"/>
@@ -6768,11 +7382,11 @@
     <row r="137" spans="1:31">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
-      <c r="C137" s="20"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="15"/>
-      <c r="E137" s="16"/>
+      <c r="E137" s="20"/>
       <c r="F137" s="14"/>
-      <c r="G137" s="16"/>
+      <c r="G137" s="20"/>
       <c r="H137" s="15"/>
       <c r="I137" s="17"/>
       <c r="J137" s="17"/>
@@ -6801,11 +7415,11 @@
     <row r="138" spans="1:31">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
-      <c r="C138" s="20"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="15"/>
-      <c r="E138" s="16"/>
+      <c r="E138" s="20"/>
       <c r="F138" s="14"/>
-      <c r="G138" s="16"/>
+      <c r="G138" s="20"/>
       <c r="H138" s="15"/>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
@@ -6834,11 +7448,11 @@
     <row r="139" spans="1:31">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
-      <c r="C139" s="20"/>
+      <c r="C139" s="16"/>
       <c r="D139" s="15"/>
-      <c r="E139" s="16"/>
+      <c r="E139" s="20"/>
       <c r="F139" s="14"/>
-      <c r="G139" s="16"/>
+      <c r="G139" s="20"/>
       <c r="H139" s="15"/>
       <c r="I139" s="17"/>
       <c r="J139" s="17"/>
@@ -6867,11 +7481,11 @@
     <row r="140" spans="1:31">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
-      <c r="C140" s="20"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="15"/>
-      <c r="E140" s="16"/>
+      <c r="E140" s="20"/>
       <c r="F140" s="14"/>
-      <c r="G140" s="16"/>
+      <c r="G140" s="20"/>
       <c r="H140" s="15"/>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
@@ -6900,11 +7514,11 @@
     <row r="141" spans="1:31">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
-      <c r="C141" s="20"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="15"/>
-      <c r="E141" s="16"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="14"/>
-      <c r="G141" s="16"/>
+      <c r="G141" s="20"/>
       <c r="H141" s="15"/>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
@@ -6933,11 +7547,11 @@
     <row r="142" spans="1:31">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
-      <c r="C142" s="20"/>
+      <c r="C142" s="16"/>
       <c r="D142" s="15"/>
-      <c r="E142" s="16"/>
+      <c r="E142" s="20"/>
       <c r="F142" s="14"/>
-      <c r="G142" s="16"/>
+      <c r="G142" s="20"/>
       <c r="H142" s="15"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
@@ -6963,39 +7577,6 @@
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
     </row>
-    <row r="143" spans="1:31">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="14"/>
-      <c r="P143" s="14"/>
-      <c r="Q143" s="14"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
-      <c r="T143" s="12"/>
-      <c r="U143" s="12"/>
-      <c r="V143" s="12"/>
-      <c r="W143" s="12"/>
-      <c r="X143" s="12"/>
-      <c r="Y143" s="12"/>
-      <c r="Z143" s="12"/>
-      <c r="AA143" s="12"/>
-      <c r="AB143" s="12"/>
-      <c r="AC143" s="12"/>
-      <c r="AD143" s="12"/>
-      <c r="AE143" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="K1:M1"/>

--- a/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
+++ b/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9300"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="矽佳EMS系统测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="262">
   <si>
     <t>功能模块</t>
   </si>
@@ -1142,16 +1142,143 @@
     <t>1、账号登录成功
 2、界面显示归还人，单据时间，创建人，创建时间正确</t>
   </si>
+  <si>
+    <t>优化三</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台领用页面
+2、新增机台领用，类型选择线边仓+目标储位，勾选相应tooling，确认机台领用
+3、进入机台归还页面，选择目标机台及tooling进行归还，选择目标储位
+4、点击确认，查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建机台领用成功
+3、进入机台归还成功，选择目标机台及tooling，目标位置和目标储位在列表页显示，并自动带出相关数据，且可以自行选择目标储位
+4、机台归还成功</t>
+  </si>
+  <si>
+    <t>保养点检维护--计划首次养护时间</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入保养点检标准页
+2、新建保养点击标准，选择响应计划养护时间及周期，使触发时间于今日
+3、接口触发生成单据
+4、查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建保养点检标准成功，选择响应计划养护时间及周期，使触发时间于今日成功
+3、接口触发单据成功
+4、生成保养点检维护单据成功</t>
+  </si>
+  <si>
+    <t>保养点检维护--上次养护时间</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入保养点检标准页
+2、新建保养点击标准
+3、手动触发保养点检维护，并养护完成
+4、查看保养点检标准的上次养护时间，并改写数据库相应字段，计算周期使触发时间于今日
+5、接口触发生成单据
+6、查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新建保养点检标准成功，保养点检维护成功，修改上次养护时间成功
+3、接口触发单据成功
+4、生成保养点检维护单据成功</t>
+  </si>
+  <si>
+    <t>盘点单--治具盘点</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入盘点单页面
+2、新建盘点单-单据类型选择治具盘点单
+3、选择Tooling分类：Loadboard、Kit、Socket、Golden
+4、进行治具盘点
+5、点击保存，查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择治具盘点单成功，选择tooling类型成功，页面带出相应数据
+3、列表页显示tooling分类信息
+4、保存、确认盘点单成功</t>
+  </si>
+  <si>
+    <t>盘点单--设备盘点</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入盘点单页面
+2、新建盘点单-单据类型选择设备盘点单
+3、机台名称模糊搜索
+4、进行设备盘点
+5、点击保存，查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择设备盘点成功，模糊搜索成功，页面带出相应数据
+3、保存、确认盘点单成功</t>
+  </si>
+  <si>
+    <t>设备保养表--显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备保养表页面
+2、查看页面显示
+3、设备名称、设备编码、设备型号、上次养护时间、下次养护时间检索
+4、查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设备保养表显示合理、正确</t>
+  </si>
+  <si>
+    <t>设备保养表--养护时间</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备保养表页面
+2、设置上次养护时间及下次养护时间
+3、查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设备保养表上次养护时间下次养护时间动态更新</t>
+  </si>
+  <si>
+    <t>设备保养表--多个养护标准</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备保养表页面
+2、设置设备多个养护标准
+3、查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设备保养表养护标准根据设备显示合理、正确</t>
+  </si>
+  <si>
+    <t>设备保养表--延期</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备保养表页面
+2、设置下次养护时间小于当前时间
+3、查看页面响应</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设备保养表显示延期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1193,9 +1320,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1207,14 +1386,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,38 +1431,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,61 +1457,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1337,7 +1464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1364,7 +1491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,43 +1527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,19 +1545,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,13 +1647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,73 +1671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,6 +1696,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,6 +1759,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1619,39 +1779,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1675,148 +1802,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2205,10 +2332,10 @@
   <sheetPr/>
   <dimension ref="A1:AE142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5789,26 +5916,26 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" ht="40.5" spans="1:31">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
+    <row r="89" ht="18" customHeight="1" spans="1:31">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
       <c r="R89" s="12"/>
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
@@ -5824,17 +5951,23 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
     </row>
-    <row r="90" ht="40.5" spans="1:31">
+    <row r="90" ht="81" spans="1:31">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="15"/>
+      <c r="D90" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="E90" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+      <c r="G90" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="18"/>
@@ -5859,17 +5992,23 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" ht="40.5" spans="1:31">
+    <row r="91" ht="67.5" spans="1:31">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
-      <c r="D91" s="15"/>
+      <c r="D91" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="E91" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="14"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
+      <c r="G91" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="18"/>
@@ -5894,15 +6033,23 @@
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" ht="94.5" spans="1:31">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="20"/>
+      <c r="D92" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F92" s="14"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
+      <c r="G92" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
       <c r="K92" s="18"/>
@@ -5927,15 +6074,23 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="12"/>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" ht="81" spans="1:31">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="20"/>
+      <c r="D93" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F93" s="14"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
+      <c r="G93" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="18"/>
@@ -5960,15 +6115,23 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" ht="67.5" spans="1:31">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="20"/>
+      <c r="D94" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F94" s="14"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
+      <c r="G94" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="18"/>
@@ -5993,15 +6156,23 @@
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" ht="67.5" spans="1:31">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="20"/>
+      <c r="D95" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F95" s="14"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
+      <c r="G95" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="18"/>
@@ -6026,15 +6197,23 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" ht="40.5" spans="1:31">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="20"/>
+      <c r="D96" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F96" s="14"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
+      <c r="G96" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>255</v>
+      </c>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="18"/>
@@ -6059,15 +6238,23 @@
       <c r="AD96" s="12"/>
       <c r="AE96" s="12"/>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" ht="40.5" spans="1:31">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="20"/>
+      <c r="D97" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F97" s="14"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="G97" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>258</v>
+      </c>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="18"/>
@@ -6092,15 +6279,23 @@
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" ht="40.5" spans="1:31">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="20"/>
+      <c r="D98" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F98" s="14"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
+      <c r="G98" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>261</v>
+      </c>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="18"/>
@@ -6125,12 +6320,14 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" ht="40.5" spans="1:31">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
       <c r="D99" s="15"/>
-      <c r="E99" s="20"/>
+      <c r="E99" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F99" s="14"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -6158,12 +6355,14 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" ht="40.5" spans="1:31">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
       <c r="D100" s="15"/>
-      <c r="E100" s="20"/>
+      <c r="E100" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F100" s="14"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
@@ -6191,12 +6390,14 @@
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" ht="40.5" spans="1:31">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="16"/>
       <c r="D101" s="15"/>
-      <c r="E101" s="20"/>
+      <c r="E101" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F101" s="14"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -6224,12 +6425,14 @@
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" ht="40.5" spans="1:31">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
       <c r="D102" s="15"/>
-      <c r="E102" s="20"/>
+      <c r="E102" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F102" s="14"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -6257,12 +6460,14 @@
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" ht="40.5" spans="1:31">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
       <c r="D103" s="15"/>
-      <c r="E103" s="20"/>
+      <c r="E103" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F103" s="14"/>
       <c r="G103" s="20"/>
       <c r="H103" s="15"/>
@@ -6290,12 +6495,14 @@
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" ht="40.5" spans="1:31">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
       <c r="D104" s="15"/>
-      <c r="E104" s="20"/>
+      <c r="E104" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F104" s="14"/>
       <c r="G104" s="20"/>
       <c r="H104" s="15"/>
@@ -6323,12 +6530,14 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" ht="40.5" spans="1:31">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
       <c r="D105" s="15"/>
-      <c r="E105" s="20"/>
+      <c r="E105" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F105" s="14"/>
       <c r="G105" s="20"/>
       <c r="H105" s="15"/>
@@ -6356,12 +6565,14 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" ht="40.5" spans="1:31">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
       <c r="D106" s="15"/>
-      <c r="E106" s="20"/>
+      <c r="E106" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F106" s="14"/>
       <c r="G106" s="20"/>
       <c r="H106" s="15"/>
@@ -6389,12 +6600,14 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" ht="40.5" spans="1:31">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
       <c r="D107" s="15"/>
-      <c r="E107" s="20"/>
+      <c r="E107" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F107" s="14"/>
       <c r="G107" s="20"/>
       <c r="H107" s="15"/>
@@ -6422,12 +6635,14 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" ht="40.5" spans="1:31">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
       <c r="D108" s="15"/>
-      <c r="E108" s="20"/>
+      <c r="E108" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F108" s="14"/>
       <c r="G108" s="20"/>
       <c r="H108" s="15"/>
@@ -6455,12 +6670,14 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" ht="40.5" spans="1:31">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
       <c r="D109" s="15"/>
-      <c r="E109" s="20"/>
+      <c r="E109" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F109" s="14"/>
       <c r="G109" s="20"/>
       <c r="H109" s="15"/>

--- a/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
+++ b/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="281">
   <si>
     <t>功能模块</t>
   </si>
@@ -1269,15 +1269,89 @@
     <t>1、账号登录成功
 2、设备保养表显示延期</t>
   </si>
+  <si>
+    <t>优化四</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入机台归还页面
+2、查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、显示归还机台字段，取值机台编码</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入保养点检标准页面
+2、新建标准单据，提前和延后日期置空，点击保存
+3、再次进入详情页，查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、保养单据保存成功
+3、再次进入后，提前、延后日期默认置空</t>
+  </si>
+  <si>
+    <t>仓库储位档案</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入仓库储位档案页面
+2、停用诸位，编辑详情，修改目标字段，点击保存
+3、查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、储位停用成功，可编辑，保存成功</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling明细页面
+2、查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、显示领用机台字段，取值机台编码</t>
+  </si>
+  <si>
+    <t>Tooling归还记录表</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入Tooling归还记录表页面
+2、查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、显示来源地、目的地取值机台编号</t>
+  </si>
+  <si>
+    <t>优化五</t>
+  </si>
+  <si>
+    <t>用户中心</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入用户中心页面
+2、将设置为主管的用户冻结、删除
+3、查看主管配置页面</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、配置的主管用户冻结、删除成功
+3、主管配置页面不显示已删除、冻结用户</t>
+  </si>
+  <si>
+    <t>用户中心删除、冻结用户审核流同步</t>
+  </si>
+  <si>
+    <t>用户中心删除、冻结用户邮件同步</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1322,35 +1396,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,25 +1421,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1392,23 +1459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1424,10 +1476,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1439,17 +1491,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,6 +1510,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,48 +1565,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1545,7 +1577,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,19 +1697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,67 +1715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,19 +1733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,39 +1775,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1744,26 +1785,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1783,6 +1804,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1797,150 +1851,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2335,7 +2409,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6320,26 +6394,26 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
     </row>
-    <row r="99" ht="40.5" spans="1:31">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
+    <row r="99" ht="18" customHeight="1" spans="1:31">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
@@ -6359,13 +6433,19 @@
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
-      <c r="D100" s="15"/>
+      <c r="D100" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="E100" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F100" s="14"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
+      <c r="G100" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="18"/>
@@ -6394,13 +6474,19 @@
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="16"/>
-      <c r="D101" s="15"/>
+      <c r="D101" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="E101" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="14"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
+      <c r="G101" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="18"/>
@@ -6429,13 +6515,19 @@
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
-      <c r="D102" s="15"/>
+      <c r="D102" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="E102" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="14"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
+      <c r="G102" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>269</v>
+      </c>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="18"/>
@@ -6464,13 +6556,19 @@
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="E103" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="14"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="15"/>
+      <c r="G103" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>271</v>
+      </c>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="18"/>
@@ -6499,13 +6597,19 @@
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
-      <c r="D104" s="15"/>
+      <c r="D104" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="E104" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="14"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="15"/>
+      <c r="G104" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="18"/>
@@ -6530,26 +6634,26 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
     </row>
-    <row r="105" ht="40.5" spans="1:31">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
+    <row r="105" ht="18" customHeight="1" spans="1:31">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
@@ -6569,13 +6673,19 @@
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
-      <c r="D106" s="15"/>
+      <c r="D106" s="15" t="s">
+        <v>276</v>
+      </c>
       <c r="E106" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="14"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="15"/>
+      <c r="G106" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="18"/>
@@ -6604,7 +6714,9 @@
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
-      <c r="D107" s="15"/>
+      <c r="D107" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="E107" s="13" t="s">
         <v>19</v>
       </c>
@@ -6639,7 +6751,9 @@
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
-      <c r="D108" s="15"/>
+      <c r="D108" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="E108" s="13" t="s">
         <v>19</v>
       </c>
@@ -6705,12 +6819,14 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" ht="40.5" spans="1:31">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
       <c r="D110" s="15"/>
-      <c r="E110" s="20"/>
+      <c r="E110" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F110" s="14"/>
       <c r="G110" s="20"/>
       <c r="H110" s="15"/>
@@ -6738,12 +6854,14 @@
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" ht="40.5" spans="1:31">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
       <c r="D111" s="15"/>
-      <c r="E111" s="20"/>
+      <c r="E111" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F111" s="14"/>
       <c r="G111" s="20"/>
       <c r="H111" s="15"/>
@@ -6771,12 +6889,14 @@
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" ht="40.5" spans="1:31">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
       <c r="D112" s="15"/>
-      <c r="E112" s="20"/>
+      <c r="E112" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F112" s="14"/>
       <c r="G112" s="20"/>
       <c r="H112" s="15"/>
@@ -6804,12 +6924,14 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" ht="40.5" spans="1:31">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="16"/>
       <c r="D113" s="15"/>
-      <c r="E113" s="20"/>
+      <c r="E113" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F113" s="14"/>
       <c r="G113" s="20"/>
       <c r="H113" s="15"/>
@@ -6837,12 +6959,14 @@
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" ht="40.5" spans="1:31">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
       <c r="D114" s="15"/>
-      <c r="E114" s="20"/>
+      <c r="E114" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F114" s="14"/>
       <c r="G114" s="20"/>
       <c r="H114" s="15"/>
@@ -6870,12 +6994,14 @@
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" ht="40.5" spans="1:31">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
       <c r="D115" s="15"/>
-      <c r="E115" s="20"/>
+      <c r="E115" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F115" s="14"/>
       <c r="G115" s="20"/>
       <c r="H115" s="15"/>
@@ -6903,12 +7029,14 @@
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" ht="40.5" spans="1:31">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
       <c r="D116" s="15"/>
-      <c r="E116" s="20"/>
+      <c r="E116" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F116" s="14"/>
       <c r="G116" s="20"/>
       <c r="H116" s="15"/>
@@ -6936,12 +7064,14 @@
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" ht="40.5" spans="1:31">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
       <c r="D117" s="15"/>
-      <c r="E117" s="20"/>
+      <c r="E117" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F117" s="14"/>
       <c r="G117" s="20"/>
       <c r="H117" s="15"/>
@@ -6969,12 +7099,14 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" ht="40.5" spans="1:31">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
       <c r="D118" s="15"/>
-      <c r="E118" s="20"/>
+      <c r="E118" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F118" s="14"/>
       <c r="G118" s="20"/>
       <c r="H118" s="15"/>
@@ -7002,12 +7134,14 @@
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" ht="40.5" spans="1:31">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
       <c r="D119" s="15"/>
-      <c r="E119" s="20"/>
+      <c r="E119" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F119" s="14"/>
       <c r="G119" s="20"/>
       <c r="H119" s="15"/>
@@ -7035,12 +7169,14 @@
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" ht="40.5" spans="1:31">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
       <c r="D120" s="15"/>
-      <c r="E120" s="20"/>
+      <c r="E120" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F120" s="14"/>
       <c r="G120" s="20"/>
       <c r="H120" s="15"/>
@@ -7068,12 +7204,14 @@
       <c r="AD120" s="12"/>
       <c r="AE120" s="12"/>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" ht="40.5" spans="1:31">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
       <c r="D121" s="15"/>
-      <c r="E121" s="20"/>
+      <c r="E121" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F121" s="14"/>
       <c r="G121" s="20"/>
       <c r="H121" s="15"/>

--- a/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
+++ b/02矽佳EMS/2-测试点xmind&测试用例/矽佳EMS系统测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="456">
   <si>
     <t>功能模块</t>
   </si>
@@ -1341,7 +1341,893 @@
     <t>用户中心删除、冻结用户审核流同步</t>
   </si>
   <si>
+    <t>1、账号登录成功，进入用户中心页面
+2、将设置为主管的用户冻结、删除
+3、发起审核流，查看下一审核人呈现</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、配置的主管用户冻结、删除成功
+3、审核流发起成功，下一审核流人员不显示已删除、冻结的人员</t>
+  </si>
+  <si>
     <t>用户中心删除、冻结用户邮件同步</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入用户中心页面
+2、将设置为主管的用户冻结、删除
+3、发起维修单，配置相关邮件，等待邮件触发
+4、查看邮件接收</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、配置的主管用户冻结、删除成功
+3、维修单发起成功，邮件发起成功，已删除、冻结的用户不会收到邮件</t>
+  </si>
+  <si>
+    <t>buyoff检验单据</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入buyoff检验标准页面
+2、新建buyoff检验标准，配置ok及ng标准，保存
+3、进入buyoff检验单据页面，选择目标buyoff检验标准
+4、查看带出的buyoff检验标准</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、buyoff检验标准设置ok及ng标准成功
+3、buyoff检验单据选择目标检验标准成功
+4、带出buyoff检验标准成功，ng及ok标准</t>
+  </si>
+  <si>
+    <t>tooling导入</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling建档页面
+2、点击导入按钮，选择目标tooling导入格式文件（excel）
+3、点击确定查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标文件成功
+3、目标数据导入成功</t>
+  </si>
+  <si>
+    <t>审核流逻辑修改</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入维修单页面
+2、使用主管账号发起维修单并发起审核流
+3、查看下一节点审核流人员</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、维修单及审核流发起成功
+3、下一节点审核人员为其部分主管</t>
+  </si>
+  <si>
+    <t>设备状态变更</t>
+  </si>
+  <si>
+    <t>分类状态设置</t>
+  </si>
+  <si>
+    <t>设备分类状态新增</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入分类状态设置页面
+2、配置好数据字典，选择目标设备分类
+3、点击添加，选择目标主状态
+4、点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、数据字典配置成功
+3、选择设备分类时，带出相应已添加的主状态
+4、点击添加成功跳出主状态列表，选择主状态成功（已选择的主状态不可再次选择）
+5、保存成功</t>
+  </si>
+  <si>
+    <t>设备分类状态删除</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入分类状态设置页面
+2、选择目标设备分类
+3、点击删除，弹框选择确认（取消）
+4、点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标设备分类成功
+3、选择设备分类时，带出相应已添加的主状态
+4、点击删除弹框选择确认（取消）删除成功（取消删除）
+5、保存成功，主状态删除成功</t>
+  </si>
+  <si>
+    <t>设备分类状态取消</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入分类状态设置页面
+2、选择目标设备分类
+3、点击添加，选择目标主状态
+4、点击取消</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标设备分类成功
+3、选择设备分类时，带出相应已添加的主状态
+4、跳转主状态选择页面，点击取消成功
+5、主状态未作修改</t>
+  </si>
+  <si>
+    <t>设备分类状态不保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入分类状态设置页面
+2、配置好数据字典，选择目标设备分类
+3、点击添加，选择目标主状态
+4、不点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、数据字典配置成功
+3、选择设备分类时，带出相应已添加的主状态
+4、点击添加成功跳出主状态列表，选择主状态成功（已选择的主状态不可再次选择）
+5、主状态未作修改</t>
+  </si>
+  <si>
+    <t>设备不可转换列表</t>
+  </si>
+  <si>
+    <t>页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备不可转换列表页面
+2、查看页面显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、打开页面，初始加载已经设置的设备状态不可转换列表</t>
+  </si>
+  <si>
+    <t>不可转换列表新增</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备不可转换列表页面
+2、点击添加，选择当前状态
+3、选择不可转换状态，多选
+4、点击保存</t>
+  </si>
+  <si>
+    <t>不可转换列表删除</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备不可转换列表页面
+2、点击删除，弹框选择确定
+3、点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备不可转换列表页面
+2、点击删除成功
+3、点击保存成功，状态列表删除成功</t>
+  </si>
+  <si>
+    <t>不可转换列表不保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备不可转换列表页面
+2、点击添加，选择当前状态
+3、选择不可转换状态，多选
+4、不点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入设备不可转换列表页面
+2、点击添加，选择当前状态
+3、选择不可转换状态，多选
+4、设备状态不可转换列表</t>
+  </si>
+  <si>
+    <t>更改机台状态</t>
+  </si>
+  <si>
+    <t>设备标号选择</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入更改机台状态页面
+2、点击设备编号，根据设备标号、设备型号查询设备，选择目标设备
+3、点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、根据设备编号、设备型号查找目标
+3、选择目标设备成功</t>
+  </si>
+  <si>
+    <t>更改设备状态</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入更改机台状态页面
+2、选择目标设备
+3、选择变更主状态，选择变更次状态
+4、点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标设备成功
+3、选择变更主状态、次状态成功
+4、保存成功</t>
+  </si>
+  <si>
+    <t>更改设备状态--单子状态</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入更改机台状态页面
+2、选择目标设备
+3、选择变更主状态，选择变更次状态（仅一个）
+4、点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标设备成功
+3、选择变更主状态成功，次状态自动带出
+4、保存成功</t>
+  </si>
+  <si>
+    <t>更改设备状态--待eng&amp;审核中借机单</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入更改机台状态页面
+2、选择目标设备
+3、选择变更主状态（待ENG），选择变更次状态，且有审核中的借机单
+4、点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标设备成功
+3、选择变更主状态、次状态成功
+4、不允许状态变更</t>
+  </si>
+  <si>
+    <t>更改设备状态-重置</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入更改机台状态页面
+2、选择目标设备
+3、选择变更主状态，选择变更次状态
+4、点击重置</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、选择目标设备成功
+3、选择变更主状态成功，次状态自动带出
+4、选择被重置</t>
+  </si>
+  <si>
+    <t>借机单优化</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入借机单页面
+2、选择发起借机，选择目标设备
+3、依次操作借机确认，发起归还，归还确认
+4、各个节点点击提交</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、发起借机， 新增选择的设备时增加筛选主状态=待ENG状态
+3、发起借机审核通过后， 将机台对应的主状态自动变更为 ENG状态并记录机台状态变更历史（含时间、人员信息）成功
+4、借机确认时：4.1 增加主状态，只读，带出设备当前的主状态（即ENG状态）；4.2 增加子状态， 必录， 可改， 选择对应主状态下的子状态；4.3 更改对应设备的子状态并 记录机台状态变更历史（含时间、人员信息）；
+5、归还确认时：5.1 增加主状态，必录，可改，  带出设备分类对应的主状态清单， 排除当前的设备状态（ENG）；5.2 增加子状态， 必录， 可改， 选择对应主状态下的子状态；5.3 更改对应设备对应的主状态和子状态并记录机台状态变更历史（含时间、人员信息）；</t>
+  </si>
+  <si>
+    <t>借机单时间点卡控</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、实际借机、归还时间优化（只能选择当前及之后时间）</t>
+  </si>
+  <si>
+    <t>EMS对接EAP</t>
+  </si>
+  <si>
+    <t>tooling有效期卡控</t>
+  </si>
+  <si>
+    <t>tooling类别</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling类别页面
+2、点击新增类别，勾选使用寿命，选择次数；勾选有效期，选择单位（年月日）
+3、键入目标数据
+4、点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、点击新增类别跳转新增详情页
+3、勾选使用寿命成功，有效期成功，使用寿命可选择次数单位，有效期可选择年月日单位，小时分钟置灰不可选
+4、保存成功</t>
+  </si>
+  <si>
+    <t>tooling建档</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling建档页面
+2、点击新增建档，选择目标tooling基础资料，带出使用寿命及有效期参数信息
+3、键入目标数据，勾选有效期后填入生产日期
+4、点击保存</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、点击新增建档跳转新增详情页
+3、选择目标基本资料成功，带出勾选的使用寿命，有效期等控制参数，且勾选了有效期生产日期必填
+4、保存成功</t>
+  </si>
+  <si>
+    <t>有效期邮件提醒</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling建档页面
+2、新增或编辑tooling建档资料，设置有效期预警值且加上生产日期等于今天
+3、邮箱群组设置tooling有效期类别，并且填入目标收件人邮箱
+4、接口触发有效期邮件提醒，查看收件人邮箱</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设置有效期成功
+3、接口触发成功
+4、收件人邮箱接收邮件成功</t>
+  </si>
+  <si>
+    <t>有效期达到卡控值生成叫修单</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling建档页面
+2、新增或编辑tooling建档资料，设置有效期卡控值且加上生产日期等于今天
+3、邮箱群组设置tooling有效期类别，并且填入目标收件人邮箱
+4、接口触发有效期邮件提醒，查看收件人邮箱</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设置有效期成功
+3、接口触发成功
+4、叫修单生成成功</t>
+  </si>
+  <si>
+    <t>tooling上机校验有效期</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling建档页面
+2、新增或编辑tooling建档资料，设置有效期卡控值且加上生产日期小于等于今天
+3、setup产品tooling设置相关信息
+4、tooling领用入库、目标机台领用，tooling上机选择目标机台及tooling治具，选择site点击上机</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设置有效期成功
+3、tooling入库、机台领用成功
+4、tooling上机设置目标机台产品站点成功，选择site成功选择目标tooling成功
+5、点击上机确定提示当前tooling已过期</t>
+  </si>
+  <si>
+    <t>tooling累计次数优化</t>
+  </si>
+  <si>
+    <t>MQ接收消息发送邮件</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增或编辑tooling建档资料，设置使用预警值
+3、接口请求mq生产消息接口，参数传使用次数大于预警值
+4、邮箱群组设置tooling使用寿命类别，并且填入目标收件人邮箱
+5、查看收件邮箱</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设置使用寿命成功
+3、接口触发成功
+4、收件人邮箱接收邮件成功</t>
+  </si>
+  <si>
+    <t>MQ接收消息生成报修单</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增或编辑tooling建档资料，设置使用寿命卡控值
+3、接口请求mq生产消息接口，参数传使用次数大于卡控值
+4、邮箱群组设置tooling使用寿命类别，并且填入目标收件人邮箱
+5、查看收件邮箱</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设置使用寿命成功
+3、接口触发成功
+4、收件人邮箱接收邮件成功
+5、同时满足预警值和卡控值时仅生成叫修单</t>
+  </si>
+  <si>
+    <t>下机时获取机台eap数量</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增或编辑tooling建档资料，设置使用寿命卡控值
+3、tooling上机成功
+4、进入tooling下机页面选择目标机台，选择目标tooling，点击下机
+5、查看日志</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设置使用寿命成功
+3、tooling上机成功
+4、tooling下机成功
+5、请求eap接口获取机台eap次数并打印日志</t>
+  </si>
+  <si>
+    <t>设备维修看板</t>
+  </si>
+  <si>
+    <t>机台位置显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看机台位置字段</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、机台位置取值设备资产档案的车间信息</t>
+  </si>
+  <si>
+    <t>设备编码显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看设备编码字段</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、设备编码取值设备编码</t>
+  </si>
+  <si>
+    <t>规格型号显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看规格型号字段</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、规格型号取值设备基础资料里的设备规格型号</t>
+  </si>
+  <si>
+    <t>报修原因显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看报修原因字段</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、报修原因取值报修单中的保修原因</t>
+  </si>
+  <si>
+    <t>各单据状态显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看状态字段</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、各单据状态取值报修单中的各个状态（过滤已结案和已撤销的）</t>
+  </si>
+  <si>
+    <t>各时间点显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看各时间点字段</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、各时间点取值：
+维修时长：维修完成时间-维修开始时间；
+待维修时长：维修响应时间-维修报修时间；
+待结案时长：当前时间-维修完成时间
+停机时长：当前时间-报修时间</t>
+  </si>
+  <si>
+    <t>报表显示格式</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、新增维修单，并走到不同阶段，待分配，待响应，维修中，复机中，待验证，已完成
+3、进入设备维修看板，查看报表显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、维修等待时间大于2小时字体显示黄色，大于4小时字体显示红色
+3、数据上下滚动，按时间倒叙排列</t>
+  </si>
+  <si>
+    <t>tooling自动叫修</t>
+  </si>
+  <si>
+    <t>自动叫修单自动填入字段显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、查看自动叫修单详情页字段显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、自动叫修单字段显示取值：
+紧急程度：紧急；
+报修人：系统维护初始值；
+机台位置：设备建档中所属车间
+故障描述：有效期到期or寿命到期</t>
+  </si>
+  <si>
+    <t>维修完成-重置使用寿命</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新增或编辑tooling建档资料，设置使用寿命卡控值，并接口请求生成叫修单
+3、将目标叫修单进行分配，维修，只维修中状态，点击维修完成
+4、查看弹窗核对有效期及使用寿命信息
+5、不勾选延期，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、自动生成使用寿命到期叫修单成功
+3、点击维修完成，跳出弹框，显示有效期重置及使用寿命重置栏，且有效期栏可查看不可操作。
+4、若toling建档未勾选有效期则重置弹框不显示数据，若tooling建档未勾选使用寿命，则提示维护使用寿命信息
+5、不勾选延期，键入备注，点击确定成功，目标tooling建档中的使用寿命实际次数被置零</t>
+  </si>
+  <si>
+    <t>维修完成-延长使用寿命</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新增或编辑tooling建档资料，设置使用寿命卡控值，并接口请求生成叫修单
+3、将目标叫修单进行分配，维修，只维修中状态，点击维修完成
+4、查看弹窗核对有效期及使用寿命信息
+5、勾选延期，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、自动生成使用寿命到期叫修单成功
+3、点击维修完成，跳出弹框，显示有效期重置及使用寿命重置栏，且有效期栏可查看不可操作。
+4、若toling建档未勾选有效期则重置弹框不显示数据，若tooling建档未勾选使用寿命，则提示维护使用寿命信息
+5、勾选延期，键入延期数量，键入备注，点击确定成功，目标tooling建档中的使用寿命卡控只被延长</t>
+  </si>
+  <si>
+    <t>维修完成-重置生产日期</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新增或编辑tooling建档资料，设置有效期卡控值，并接口请求生成叫修单
+3、将目标叫修单进行分配，维修，只维修中状态，点击维修完成
+4、查看弹窗核对有效期及使用寿命信息
+5、不勾选延期，选择生产日期，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、自动生成有效期到期叫修单成功
+3、点击维修完成，跳出弹框，显示有效期重置及使用寿命重置栏，且有效期栏可查看不可操作。
+4、若toling建档未勾选使用寿命则重置弹框不显示数据，若tooling建档未勾选有效期，则提示维护有效期信息
+5、不勾选延期，选择生产日期，点击确定成功，目标tooling建档中的生产日期被更新</t>
+  </si>
+  <si>
+    <t>维修完成-延长有效期</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新增或编辑tooling建档资料，设置有效期卡控值，并接口请求生成叫修单
+3、将目标叫修单进行分配，维修，只维修中状态，点击维修完成
+4、查看弹窗核对有效期及使用寿命信息
+5、不勾选延期，键入延长天数，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、自动生成有效期到期叫修单成功
+3、点击维修完成，跳出弹框，显示有效期重置及使用寿命重置栏，且有效期栏可查看不可操作。
+4、若toling建档未勾选使用寿命则重置弹框不显示数据，若tooling建档未勾选有效期，则提示维护有效期信息
+5、勾选延期，键入延长天数，点击确定成功，目标tooling建档中的有效期卡控值被延长</t>
+  </si>
+  <si>
+    <t>tooling下机</t>
+  </si>
+  <si>
+    <t>重置有效期、重置使用寿命按钮显示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling下机页
+2、查看重置有效期、重置使用寿命按钮显示（tooling建档有效期，使用寿命均勾选；有效期，使用寿命勾选其中一个，有效期，使用寿命均不勾选）</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、tooling建档有效期、使用寿命均勾选，tooling下机页有效期、使用寿命均高亮；
+tooling建档有效期勾选、使用寿命未勾选，tooling县级页有效期高亮，使用寿命按钮不高亮；
+tooling建档有效期不勾选、使用寿命勾选，tooling下机页有效期按钮不高梁，使用寿命按钮高亮；
+tooling建档有效期、使用寿命均不勾选，tooling下机页有效期按钮、使用寿命按钮均不高亮</t>
+  </si>
+  <si>
+    <t>tooling下机-重置使用寿命</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling下机页
+2、新增或编辑tooling建档资料，设置使用寿命卡控值
+3、进入到tooling下机
+4、不勾选延期，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、若toling建档未勾选有效期则重置弹框不显示数据，若tooling建档未勾选使用寿命，则提示维护使用寿命信息
+3、不勾选延期，键入备注，点击确定成功，目标tooling建档中的使用寿命实际次数被置零</t>
+  </si>
+  <si>
+    <t>tooling下机-延长使用寿命</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling下机页
+2、新增或编辑tooling建档资料，设置使用寿命卡控值
+3、进入到tooling下机
+4、勾选延期，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、若toling建档未勾选有效期则重置弹框不显示数据，若tooling建档未勾选使用寿命，则提示维护使用寿命信息
+3、勾选延期，键入延期数量，键入备注，点击确定成功，目标tooling建档中的使用寿命卡控只被延长</t>
+  </si>
+  <si>
+    <t>tooling下机-重置生产日期</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入tooling下机页
+2、新增或编辑tooling建档资料，设置有效期卡控值，并接口请求生成叫修单
+3、进入到tooling下机
+5、不勾选延期，选择生产日期，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、若toling建档未勾选使用寿命则重置弹框不显示数据，若tooling建档未勾选有效期，则提示维护有效期信息
+3、不勾选延期，选择生产日期，点击确定成功，目标tooling建档中的生产日期被更新</t>
+  </si>
+  <si>
+    <t>tooling下机-延长有效期</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入报修单页面
+2、新增或编辑tooling建档资料，设置有效期卡控值，并接口请求生成叫修单
+3、进入到tooling下机
+5、不勾选延期，键入延长天数，填写备注，点击确定</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、若toling建档未勾选使用寿命则重置弹框不显示数据，若tooling建档未勾选有效期，则提示维护有效期信息
+3、勾选延期，键入延长天数，点击确定成功，目标tooling建档中的有效期卡控值被延长</t>
+  </si>
+  <si>
+    <t>OEE报表</t>
+  </si>
+  <si>
+    <t>OEE报表展示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功，进入OEE页面
+2、查看OEE报表展示</t>
+  </si>
+  <si>
+    <t>1、账号登录成功
+2、展示的是top5差的设备oee数据；内容为过去四周（不含当周）及本周（不含当天）的数据；轮播时间间隔3S</t>
+  </si>
+  <si>
+    <t>二次开发自定义字段</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入保养点检标准页
+2、点击添加字段键入目标值
+3、新增目标保养点检标准键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、账号登陆成功
+2、添加字段成功
+3、目标单据添加的字段键入值成功
+4、详情页、列表页返回目标字段信息
+5、删除目标字段成功
+6、删除后字段及相关信息不展示
+7、再次添加删除字段成功
+8、键入值成功，页面显示成功</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入保养点检维护页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>报修单</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入报修单页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>待分配报修单</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入待分配报修单页
+2、查看目标字段是否带出
+3、删除添加的字段，查看页面返回
+4、再次添加已删除的字段，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、账号登陆成功
+2、显示带出的字段
+3、删除目标字段成功
+4、删除后字段及相关信息不展示
+5、再次添加删除字段成功
+6、页面显示成功</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入待维修报修单页
+2、查看目标字段是否带出
+3、删除添加的字段，查看页面返回
+4、再次添加已删除的字段，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入维修待复机单页
+2、查看目标字段是否带出
+3、删除添加的字段，查看页面返回
+4、再次添加已删除的字段，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入保养待复机单页
+2、查看目标字段是否带出
+3、删除添加的字段，查看页面返回
+4、再次添加已删除的字段，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入复机复检标准页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入调拨单转出申请页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入调拨单转入申请页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入借机单页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>Buyoff检验标准</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入Buyoff检验标准页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>Buyoff检验单据</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入Buyoff检验单据页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入零部件资产档案页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入设备资产档案页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>设备部件构成</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入设备部件构成页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>资产型号</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入资产型号页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>资产台账</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入资产台账页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
+  </si>
+  <si>
+    <t>厂商档案</t>
+  </si>
+  <si>
+    <t>1、登陆账号进入厂商档案页
+2、点击添加字段键入目标值
+3、新增目标单据键入添加的字段值，保存
+4、查看详情页及列表页页面返回
+5、删除添加的字段，查看页面返回
+6、再次添加已删除的字段，查看页面返回
+7、编辑单据，键入目标值，查看页面返回</t>
   </si>
 </sst>
 </file>
@@ -2404,18 +3290,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE142"/>
+  <dimension ref="A1:AE275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.75" style="3" customWidth="1"/>
@@ -6721,8 +7607,12 @@
         <v>19</v>
       </c>
       <c r="F107" s="14"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="15"/>
+      <c r="G107" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="18"/>
@@ -6747,19 +7637,23 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
     </row>
-    <row r="108" ht="40.5" spans="1:31">
+    <row r="108" ht="54" spans="1:31">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
       <c r="D108" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="14"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="15"/>
+      <c r="G108" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="18"/>
@@ -6784,17 +7678,23 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
     </row>
-    <row r="109" ht="40.5" spans="1:31">
+    <row r="109" ht="67.5" spans="1:31">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
-      <c r="D109" s="15"/>
+      <c r="D109" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="E109" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="14"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="15"/>
+      <c r="G109" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="18"/>
@@ -6819,17 +7719,23 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
     </row>
-    <row r="110" ht="40.5" spans="1:31">
+    <row r="110" ht="54" spans="1:31">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
-      <c r="D110" s="15"/>
+      <c r="D110" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="E110" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="14"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="15"/>
+      <c r="G110" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="18"/>
@@ -6858,13 +7764,19 @@
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
-      <c r="D111" s="15"/>
+      <c r="D111" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="E111" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F111" s="14"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="15"/>
+      <c r="G111" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="18"/>
@@ -6889,26 +7801,26 @@
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
     </row>
-    <row r="112" ht="40.5" spans="1:31">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
+    <row r="112" ht="18" customHeight="1" spans="1:31">
+      <c r="A112" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
@@ -6924,26 +7836,26 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
     </row>
-    <row r="113" ht="40.5" spans="1:31">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
+    <row r="113" ht="18" customHeight="1" spans="1:31">
+      <c r="A113" s="5"/>
+      <c r="B113" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
@@ -6959,17 +7871,23 @@
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
     </row>
-    <row r="114" ht="40.5" spans="1:31">
+    <row r="114" ht="81" spans="1:31">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
-      <c r="D114" s="15"/>
+      <c r="D114" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="E114" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="14"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="15"/>
+      <c r="G114" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="18"/>
@@ -6994,17 +7912,23 @@
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
     </row>
-    <row r="115" ht="40.5" spans="1:31">
+    <row r="115" ht="67.5" spans="1:31">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
-      <c r="D115" s="15"/>
+      <c r="D115" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="E115" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="14"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="15"/>
+      <c r="G115" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>301</v>
+      </c>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
       <c r="K115" s="18"/>
@@ -7029,17 +7953,23 @@
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
     </row>
-    <row r="116" ht="40.5" spans="1:31">
+    <row r="116" ht="67.5" spans="1:31">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
-      <c r="D116" s="15"/>
+      <c r="D116" s="15" t="s">
+        <v>302</v>
+      </c>
       <c r="E116" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="14"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="15"/>
+      <c r="G116" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" s="18"/>
@@ -7064,17 +7994,23 @@
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
     </row>
-    <row r="117" ht="40.5" spans="1:31">
+    <row r="117" ht="81" spans="1:31">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
-      <c r="D117" s="15"/>
+      <c r="D117" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="E117" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="14"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="15"/>
+      <c r="G117" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>307</v>
+      </c>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
       <c r="K117" s="18"/>
@@ -7099,26 +8035,26 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
     </row>
-    <row r="118" ht="40.5" spans="1:31">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="14"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
+    <row r="118" ht="27" spans="1:31">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
@@ -7138,13 +8074,19 @@
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
-      <c r="D119" s="15"/>
+      <c r="D119" s="15" t="s">
+        <v>309</v>
+      </c>
       <c r="E119" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="14"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="15"/>
+      <c r="G119" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>311</v>
+      </c>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
       <c r="K119" s="18"/>
@@ -7169,17 +8111,23 @@
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
     </row>
-    <row r="120" ht="40.5" spans="1:31">
+    <row r="120" ht="54" spans="1:31">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
-      <c r="D120" s="15"/>
+      <c r="D120" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="E120" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="14"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="15"/>
+      <c r="G120" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>313</v>
+      </c>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
       <c r="K120" s="18"/>
@@ -7208,13 +8156,19 @@
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
-      <c r="D121" s="15"/>
+      <c r="D121" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="E121" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="14"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="15"/>
+      <c r="G121" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
       <c r="K121" s="18"/>
@@ -7239,15 +8193,23 @@
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" ht="54" spans="1:31">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="20"/>
+      <c r="D122" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F122" s="14"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="15"/>
+      <c r="G122" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
       <c r="K122" s="18"/>
@@ -7273,23 +8235,25 @@
       <c r="AE122" s="12"/>
     </row>
     <row r="123" spans="1:31">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
@@ -7305,15 +8269,23 @@
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" ht="54" spans="1:31">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="20"/>
+      <c r="D124" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F124" s="14"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="15"/>
+      <c r="G124" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
       <c r="K124" s="18"/>
@@ -7338,15 +8310,23 @@
       <c r="AD124" s="12"/>
       <c r="AE124" s="12"/>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" ht="54" spans="1:31">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="20"/>
+      <c r="D125" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F125" s="14"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="15"/>
+      <c r="G125" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
       <c r="K125" s="18"/>
@@ -7371,15 +8351,23 @@
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" ht="54" spans="1:31">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="16"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="20"/>
+      <c r="D126" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F126" s="14"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="15"/>
+      <c r="G126" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
       <c r="K126" s="18"/>
@@ -7404,15 +8392,23 @@
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" ht="67.5" spans="1:31">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="20"/>
+      <c r="D127" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F127" s="14"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="15"/>
+      <c r="G127" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>332</v>
+      </c>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
       <c r="K127" s="18"/>
@@ -7437,15 +8433,23 @@
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" ht="54" spans="1:31">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="20"/>
+      <c r="D128" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F128" s="14"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="15"/>
+      <c r="G128" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>335</v>
+      </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="18"/>
@@ -7471,23 +8475,25 @@
       <c r="AE128" s="12"/>
     </row>
     <row r="129" spans="1:31">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="14"/>
-      <c r="Q129" s="14"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
@@ -7503,15 +8509,23 @@
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" ht="175.5" spans="1:31">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="20"/>
+      <c r="D130" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F130" s="14"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="15"/>
+      <c r="G130" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>338</v>
+      </c>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
       <c r="K130" s="18"/>
@@ -7536,15 +8550,23 @@
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" ht="54" spans="1:31">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="20"/>
+      <c r="D131" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F131" s="14"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="15"/>
+      <c r="G131" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
       <c r="K131" s="18"/>
@@ -7570,23 +8592,25 @@
       <c r="AE131" s="12"/>
     </row>
     <row r="132" spans="1:31">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
-      <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
+      <c r="A132" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
       <c r="R132" s="12"/>
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
@@ -7602,24 +8626,26 @@
       <c r="AD132" s="12"/>
       <c r="AE132" s="12"/>
     </row>
-    <row r="133" spans="1:31">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
+    <row r="133" ht="27" spans="1:31">
+      <c r="A133" s="5"/>
+      <c r="B133" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
       <c r="R133" s="12"/>
       <c r="S133" s="12"/>
       <c r="T133" s="12"/>
@@ -7635,15 +8661,23 @@
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" ht="67.5" spans="1:31">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="20"/>
+      <c r="D134" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F134" s="14"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="15"/>
+      <c r="G134" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="I134" s="17"/>
       <c r="J134" s="17"/>
       <c r="K134" s="18"/>
@@ -7668,15 +8702,23 @@
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" ht="67.5" spans="1:31">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="20"/>
+      <c r="D135" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F135" s="14"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="15"/>
+      <c r="G135" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="I135" s="17"/>
       <c r="J135" s="17"/>
       <c r="K135" s="18"/>
@@ -7701,15 +8743,23 @@
       <c r="AD135" s="12"/>
       <c r="AE135" s="12"/>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" ht="81" spans="1:31">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="20"/>
+      <c r="D136" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F136" s="14"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="15"/>
+      <c r="G136" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>351</v>
+      </c>
       <c r="I136" s="17"/>
       <c r="J136" s="17"/>
       <c r="K136" s="18"/>
@@ -7734,15 +8784,23 @@
       <c r="AD136" s="12"/>
       <c r="AE136" s="12"/>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" ht="81" spans="1:31">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="20"/>
+      <c r="D137" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F137" s="14"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="15"/>
+      <c r="G137" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>354</v>
+      </c>
       <c r="I137" s="17"/>
       <c r="J137" s="17"/>
       <c r="K137" s="18"/>
@@ -7767,15 +8825,23 @@
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" ht="81" spans="1:31">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="16"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="20"/>
+      <c r="D138" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F138" s="14"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="15"/>
+      <c r="G138" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
       <c r="K138" s="18"/>
@@ -7800,24 +8866,26 @@
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
     </row>
-    <row r="139" spans="1:31">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="14"/>
-      <c r="Q139" s="14"/>
+    <row r="139" ht="27" spans="1:31">
+      <c r="A139" s="5"/>
+      <c r="B139" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
       <c r="T139" s="12"/>
@@ -7833,15 +8901,23 @@
       <c r="AD139" s="12"/>
       <c r="AE139" s="12"/>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" ht="94.5" spans="1:31">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="20"/>
+      <c r="D140" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F140" s="14"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="15"/>
+      <c r="G140" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
       <c r="K140" s="18"/>
@@ -7866,15 +8942,23 @@
       <c r="AD140" s="12"/>
       <c r="AE140" s="12"/>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" ht="108" spans="1:31">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="20"/>
+      <c r="D141" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F141" s="14"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="15"/>
+      <c r="G141" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>364</v>
+      </c>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
       <c r="K141" s="18"/>
@@ -7899,15 +8983,23 @@
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" ht="94.5" spans="1:31">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="20"/>
+      <c r="D142" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F142" s="14"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="15"/>
+      <c r="G142" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
       <c r="K142" s="18"/>
@@ -7932,6 +9024,4715 @@
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
     </row>
+    <row r="143" spans="1:31">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="12"/>
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="12"/>
+      <c r="AC143" s="12"/>
+      <c r="AD143" s="12"/>
+      <c r="AE143" s="12"/>
+    </row>
+    <row r="144" ht="54" spans="1:31">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="14"/>
+      <c r="G144" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+      <c r="Z144" s="12"/>
+      <c r="AA144" s="12"/>
+      <c r="AB144" s="12"/>
+      <c r="AC144" s="12"/>
+      <c r="AD144" s="12"/>
+      <c r="AE144" s="12"/>
+    </row>
+    <row r="145" ht="54" spans="1:31">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="14"/>
+      <c r="G145" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="12"/>
+      <c r="AA145" s="12"/>
+      <c r="AB145" s="12"/>
+      <c r="AC145" s="12"/>
+      <c r="AD145" s="12"/>
+      <c r="AE145" s="12"/>
+    </row>
+    <row r="146" ht="54" spans="1:31">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="14"/>
+      <c r="G146" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+      <c r="Z146" s="12"/>
+      <c r="AA146" s="12"/>
+      <c r="AB146" s="12"/>
+      <c r="AC146" s="12"/>
+      <c r="AD146" s="12"/>
+      <c r="AE146" s="12"/>
+    </row>
+    <row r="147" ht="54" spans="1:31">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="14"/>
+      <c r="G147" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="12"/>
+      <c r="AA147" s="12"/>
+      <c r="AB147" s="12"/>
+      <c r="AC147" s="12"/>
+      <c r="AD147" s="12"/>
+      <c r="AE147" s="12"/>
+    </row>
+    <row r="148" ht="54" spans="1:31">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="12"/>
+      <c r="AA148" s="12"/>
+      <c r="AB148" s="12"/>
+      <c r="AC148" s="12"/>
+      <c r="AD148" s="12"/>
+      <c r="AE148" s="12"/>
+    </row>
+    <row r="149" ht="81" spans="1:31">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="14"/>
+      <c r="G149" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="12"/>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="12"/>
+      <c r="AA149" s="12"/>
+      <c r="AB149" s="12"/>
+      <c r="AC149" s="12"/>
+      <c r="AD149" s="12"/>
+      <c r="AE149" s="12"/>
+    </row>
+    <row r="150" ht="54" spans="1:31">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="14"/>
+      <c r="G150" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="12"/>
+      <c r="U150" s="12"/>
+      <c r="V150" s="12"/>
+      <c r="W150" s="12"/>
+      <c r="X150" s="12"/>
+      <c r="Y150" s="12"/>
+      <c r="Z150" s="12"/>
+      <c r="AA150" s="12"/>
+      <c r="AB150" s="12"/>
+      <c r="AC150" s="12"/>
+      <c r="AD150" s="12"/>
+      <c r="AE150" s="12"/>
+    </row>
+    <row r="151" ht="27" spans="1:31">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="12"/>
+      <c r="U151" s="12"/>
+      <c r="V151" s="12"/>
+      <c r="W151" s="12"/>
+      <c r="X151" s="12"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="12"/>
+      <c r="AA151" s="12"/>
+      <c r="AB151" s="12"/>
+      <c r="AC151" s="12"/>
+      <c r="AD151" s="12"/>
+      <c r="AE151" s="12"/>
+    </row>
+    <row r="152" ht="81" spans="1:31">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="14"/>
+      <c r="G152" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="12"/>
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="12"/>
+      <c r="AC152" s="12"/>
+      <c r="AD152" s="12"/>
+      <c r="AE152" s="12"/>
+    </row>
+    <row r="153" ht="108" spans="1:31">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="12"/>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="12"/>
+      <c r="AC153" s="12"/>
+      <c r="AD153" s="12"/>
+      <c r="AE153" s="12"/>
+    </row>
+    <row r="154" ht="108" spans="1:31">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="12"/>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="12"/>
+      <c r="AA154" s="12"/>
+      <c r="AB154" s="12"/>
+      <c r="AC154" s="12"/>
+      <c r="AD154" s="12"/>
+      <c r="AE154" s="12"/>
+    </row>
+    <row r="155" ht="108" spans="1:31">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="12"/>
+      <c r="AA155" s="12"/>
+      <c r="AB155" s="12"/>
+      <c r="AC155" s="12"/>
+      <c r="AD155" s="12"/>
+      <c r="AE155" s="12"/>
+    </row>
+    <row r="156" ht="108" spans="1:31">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="14"/>
+      <c r="G156" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
+      <c r="U156" s="12"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="12"/>
+      <c r="AA156" s="12"/>
+      <c r="AB156" s="12"/>
+      <c r="AC156" s="12"/>
+      <c r="AD156" s="12"/>
+      <c r="AE156" s="12"/>
+    </row>
+    <row r="157" spans="1:31">
+      <c r="A157" s="5"/>
+      <c r="B157" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="12"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="12"/>
+      <c r="X157" s="12"/>
+      <c r="Y157" s="12"/>
+      <c r="Z157" s="12"/>
+      <c r="AA157" s="12"/>
+      <c r="AB157" s="12"/>
+      <c r="AC157" s="12"/>
+      <c r="AD157" s="12"/>
+      <c r="AE157" s="12"/>
+    </row>
+    <row r="158" ht="121.5" spans="1:31">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="12"/>
+      <c r="U158" s="12"/>
+      <c r="V158" s="12"/>
+      <c r="W158" s="12"/>
+      <c r="X158" s="12"/>
+      <c r="Y158" s="12"/>
+      <c r="Z158" s="12"/>
+      <c r="AA158" s="12"/>
+      <c r="AB158" s="12"/>
+      <c r="AC158" s="12"/>
+      <c r="AD158" s="12"/>
+      <c r="AE158" s="12"/>
+    </row>
+    <row r="159" ht="67.5" spans="1:31">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="G159" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="12"/>
+      <c r="U159" s="12"/>
+      <c r="V159" s="12"/>
+      <c r="W159" s="12"/>
+      <c r="X159" s="12"/>
+      <c r="Y159" s="12"/>
+      <c r="Z159" s="12"/>
+      <c r="AA159" s="12"/>
+      <c r="AB159" s="12"/>
+      <c r="AC159" s="12"/>
+      <c r="AD159" s="12"/>
+      <c r="AE159" s="12"/>
+    </row>
+    <row r="160" ht="67.5" spans="1:31">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="12"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="12"/>
+      <c r="AA160" s="12"/>
+      <c r="AB160" s="12"/>
+      <c r="AC160" s="12"/>
+      <c r="AD160" s="12"/>
+      <c r="AE160" s="12"/>
+    </row>
+    <row r="161" ht="81" spans="1:31">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="14"/>
+      <c r="G161" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="12"/>
+      <c r="U161" s="12"/>
+      <c r="V161" s="12"/>
+      <c r="W161" s="12"/>
+      <c r="X161" s="12"/>
+      <c r="Y161" s="12"/>
+      <c r="Z161" s="12"/>
+      <c r="AA161" s="12"/>
+      <c r="AB161" s="12"/>
+      <c r="AC161" s="12"/>
+      <c r="AD161" s="12"/>
+      <c r="AE161" s="12"/>
+    </row>
+    <row r="162" ht="81" spans="1:31">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="14"/>
+      <c r="G162" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H162" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12"/>
+      <c r="X162" s="12"/>
+      <c r="Y162" s="12"/>
+      <c r="Z162" s="12"/>
+      <c r="AA162" s="12"/>
+      <c r="AB162" s="12"/>
+      <c r="AC162" s="12"/>
+      <c r="AD162" s="12"/>
+      <c r="AE162" s="12"/>
+    </row>
+    <row r="163" spans="1:31">
+      <c r="A163" s="5"/>
+      <c r="B163" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="12"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="12"/>
+      <c r="Y163" s="12"/>
+      <c r="Z163" s="12"/>
+      <c r="AA163" s="12"/>
+      <c r="AB163" s="12"/>
+      <c r="AC163" s="12"/>
+      <c r="AD163" s="12"/>
+      <c r="AE163" s="12"/>
+    </row>
+    <row r="164" ht="40.5" spans="1:31">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="14"/>
+      <c r="G164" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="14"/>
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="12"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="12"/>
+      <c r="W164" s="12"/>
+      <c r="X164" s="12"/>
+      <c r="Y164" s="12"/>
+      <c r="Z164" s="12"/>
+      <c r="AA164" s="12"/>
+      <c r="AB164" s="12"/>
+      <c r="AC164" s="12"/>
+      <c r="AD164" s="12"/>
+      <c r="AE164" s="12"/>
+    </row>
+    <row r="165" ht="27" spans="1:31">
+      <c r="A165" s="5"/>
+      <c r="B165" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="12"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="12"/>
+      <c r="Y165" s="12"/>
+      <c r="Z165" s="12"/>
+      <c r="AA165" s="12"/>
+      <c r="AB165" s="12"/>
+      <c r="AC165" s="12"/>
+      <c r="AD165" s="12"/>
+      <c r="AE165" s="12"/>
+    </row>
+    <row r="166" ht="108" spans="1:31">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
+      <c r="O166" s="14"/>
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="12"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="12"/>
+      <c r="AA166" s="12"/>
+      <c r="AB166" s="12"/>
+      <c r="AC166" s="12"/>
+      <c r="AD166" s="12"/>
+      <c r="AE166" s="12"/>
+    </row>
+    <row r="167" ht="108" spans="1:31">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" s="14"/>
+      <c r="G167" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+      <c r="Q167" s="14"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="12"/>
+      <c r="U167" s="12"/>
+      <c r="V167" s="12"/>
+      <c r="W167" s="12"/>
+      <c r="X167" s="12"/>
+      <c r="Y167" s="12"/>
+      <c r="Z167" s="12"/>
+      <c r="AA167" s="12"/>
+      <c r="AB167" s="12"/>
+      <c r="AC167" s="12"/>
+      <c r="AD167" s="12"/>
+      <c r="AE167" s="12"/>
+    </row>
+    <row r="168" ht="108" spans="1:31">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="14"/>
+      <c r="G168" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H168" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="14"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="14"/>
+      <c r="Q168" s="14"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="12"/>
+      <c r="U168" s="12"/>
+      <c r="V168" s="12"/>
+      <c r="W168" s="12"/>
+      <c r="X168" s="12"/>
+      <c r="Y168" s="12"/>
+      <c r="Z168" s="12"/>
+      <c r="AA168" s="12"/>
+      <c r="AB168" s="12"/>
+      <c r="AC168" s="12"/>
+      <c r="AD168" s="12"/>
+      <c r="AE168" s="12"/>
+    </row>
+    <row r="169" ht="81" spans="1:31">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="14"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
+      <c r="Q169" s="14"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="12"/>
+      <c r="U169" s="12"/>
+      <c r="V169" s="12"/>
+      <c r="W169" s="12"/>
+      <c r="X169" s="12"/>
+      <c r="Y169" s="12"/>
+      <c r="Z169" s="12"/>
+      <c r="AA169" s="12"/>
+      <c r="AB169" s="12"/>
+      <c r="AC169" s="12"/>
+      <c r="AD169" s="12"/>
+      <c r="AE169" s="12"/>
+    </row>
+    <row r="170" ht="81" spans="1:31">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="14"/>
+      <c r="G170" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="14"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14"/>
+      <c r="O170" s="14"/>
+      <c r="P170" s="14"/>
+      <c r="Q170" s="14"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="12"/>
+      <c r="U170" s="12"/>
+      <c r="V170" s="12"/>
+      <c r="W170" s="12"/>
+      <c r="X170" s="12"/>
+      <c r="Y170" s="12"/>
+      <c r="Z170" s="12"/>
+      <c r="AA170" s="12"/>
+      <c r="AB170" s="12"/>
+      <c r="AC170" s="12"/>
+      <c r="AD170" s="12"/>
+      <c r="AE170" s="12"/>
+    </row>
+    <row r="171" ht="81" spans="1:31">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="14"/>
+      <c r="G171" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="14"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14"/>
+      <c r="O171" s="14"/>
+      <c r="P171" s="14"/>
+      <c r="Q171" s="14"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="12"/>
+      <c r="U171" s="12"/>
+      <c r="V171" s="12"/>
+      <c r="W171" s="12"/>
+      <c r="X171" s="12"/>
+      <c r="Y171" s="12"/>
+      <c r="Z171" s="12"/>
+      <c r="AA171" s="12"/>
+      <c r="AB171" s="12"/>
+      <c r="AC171" s="12"/>
+      <c r="AD171" s="12"/>
+      <c r="AE171" s="12"/>
+    </row>
+    <row r="172" ht="81" spans="1:31">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="14"/>
+      <c r="G172" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="14"/>
+      <c r="O172" s="14"/>
+      <c r="P172" s="14"/>
+      <c r="Q172" s="14"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="12"/>
+      <c r="U172" s="12"/>
+      <c r="V172" s="12"/>
+      <c r="W172" s="12"/>
+      <c r="X172" s="12"/>
+      <c r="Y172" s="12"/>
+      <c r="Z172" s="12"/>
+      <c r="AA172" s="12"/>
+      <c r="AB172" s="12"/>
+      <c r="AC172" s="12"/>
+      <c r="AD172" s="12"/>
+      <c r="AE172" s="12"/>
+    </row>
+    <row r="173" ht="108" spans="1:31">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="14"/>
+      <c r="G173" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="14"/>
+      <c r="M173" s="14"/>
+      <c r="N173" s="14"/>
+      <c r="O173" s="14"/>
+      <c r="P173" s="14"/>
+      <c r="Q173" s="14"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="12"/>
+      <c r="U173" s="12"/>
+      <c r="V173" s="12"/>
+      <c r="W173" s="12"/>
+      <c r="X173" s="12"/>
+      <c r="Y173" s="12"/>
+      <c r="Z173" s="12"/>
+      <c r="AA173" s="12"/>
+      <c r="AB173" s="12"/>
+      <c r="AC173" s="12"/>
+      <c r="AD173" s="12"/>
+      <c r="AE173" s="12"/>
+    </row>
+    <row r="174" ht="108" spans="1:31">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="G174" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="14"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="14"/>
+      <c r="O174" s="14"/>
+      <c r="P174" s="14"/>
+      <c r="Q174" s="14"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="12"/>
+      <c r="U174" s="12"/>
+      <c r="V174" s="12"/>
+      <c r="W174" s="12"/>
+      <c r="X174" s="12"/>
+      <c r="Y174" s="12"/>
+      <c r="Z174" s="12"/>
+      <c r="AA174" s="12"/>
+      <c r="AB174" s="12"/>
+      <c r="AC174" s="12"/>
+      <c r="AD174" s="12"/>
+      <c r="AE174" s="12"/>
+    </row>
+    <row r="175" ht="108" spans="1:31">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="14"/>
+      <c r="G175" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="H175" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14"/>
+      <c r="O175" s="14"/>
+      <c r="P175" s="14"/>
+      <c r="Q175" s="14"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="12"/>
+      <c r="U175" s="12"/>
+      <c r="V175" s="12"/>
+      <c r="W175" s="12"/>
+      <c r="X175" s="12"/>
+      <c r="Y175" s="12"/>
+      <c r="Z175" s="12"/>
+      <c r="AA175" s="12"/>
+      <c r="AB175" s="12"/>
+      <c r="AC175" s="12"/>
+      <c r="AD175" s="12"/>
+      <c r="AE175" s="12"/>
+    </row>
+    <row r="176" ht="108" spans="1:31">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="14"/>
+      <c r="G176" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="H176" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="12"/>
+      <c r="S176" s="12"/>
+      <c r="T176" s="12"/>
+      <c r="U176" s="12"/>
+      <c r="V176" s="12"/>
+      <c r="W176" s="12"/>
+      <c r="X176" s="12"/>
+      <c r="Y176" s="12"/>
+      <c r="Z176" s="12"/>
+      <c r="AA176" s="12"/>
+      <c r="AB176" s="12"/>
+      <c r="AC176" s="12"/>
+      <c r="AD176" s="12"/>
+      <c r="AE176" s="12"/>
+    </row>
+    <row r="177" ht="108" spans="1:31">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" s="14"/>
+      <c r="G177" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="H177" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
+      <c r="Q177" s="14"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="12"/>
+      <c r="T177" s="12"/>
+      <c r="U177" s="12"/>
+      <c r="V177" s="12"/>
+      <c r="W177" s="12"/>
+      <c r="X177" s="12"/>
+      <c r="Y177" s="12"/>
+      <c r="Z177" s="12"/>
+      <c r="AA177" s="12"/>
+      <c r="AB177" s="12"/>
+      <c r="AC177" s="12"/>
+      <c r="AD177" s="12"/>
+      <c r="AE177" s="12"/>
+    </row>
+    <row r="178" ht="108" spans="1:31">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="14"/>
+      <c r="G178" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="H178" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="12"/>
+      <c r="U178" s="12"/>
+      <c r="V178" s="12"/>
+      <c r="W178" s="12"/>
+      <c r="X178" s="12"/>
+      <c r="Y178" s="12"/>
+      <c r="Z178" s="12"/>
+      <c r="AA178" s="12"/>
+      <c r="AB178" s="12"/>
+      <c r="AC178" s="12"/>
+      <c r="AD178" s="12"/>
+      <c r="AE178" s="12"/>
+    </row>
+    <row r="179" ht="108" spans="1:31">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="14"/>
+      <c r="G179" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="H179" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="14"/>
+      <c r="P179" s="14"/>
+      <c r="Q179" s="14"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="12"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="12"/>
+      <c r="W179" s="12"/>
+      <c r="X179" s="12"/>
+      <c r="Y179" s="12"/>
+      <c r="Z179" s="12"/>
+      <c r="AA179" s="12"/>
+      <c r="AB179" s="12"/>
+      <c r="AC179" s="12"/>
+      <c r="AD179" s="12"/>
+      <c r="AE179" s="12"/>
+    </row>
+    <row r="180" ht="108" spans="1:31">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="14"/>
+      <c r="G180" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="14"/>
+      <c r="N180" s="14"/>
+      <c r="O180" s="14"/>
+      <c r="P180" s="14"/>
+      <c r="Q180" s="14"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="12"/>
+      <c r="T180" s="12"/>
+      <c r="U180" s="12"/>
+      <c r="V180" s="12"/>
+      <c r="W180" s="12"/>
+      <c r="X180" s="12"/>
+      <c r="Y180" s="12"/>
+      <c r="Z180" s="12"/>
+      <c r="AA180" s="12"/>
+      <c r="AB180" s="12"/>
+      <c r="AC180" s="12"/>
+      <c r="AD180" s="12"/>
+      <c r="AE180" s="12"/>
+    </row>
+    <row r="181" ht="108" spans="1:31">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="14"/>
+      <c r="G181" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="12"/>
+      <c r="S181" s="12"/>
+      <c r="T181" s="12"/>
+      <c r="U181" s="12"/>
+      <c r="V181" s="12"/>
+      <c r="W181" s="12"/>
+      <c r="X181" s="12"/>
+      <c r="Y181" s="12"/>
+      <c r="Z181" s="12"/>
+      <c r="AA181" s="12"/>
+      <c r="AB181" s="12"/>
+      <c r="AC181" s="12"/>
+      <c r="AD181" s="12"/>
+      <c r="AE181" s="12"/>
+    </row>
+    <row r="182" ht="108" spans="1:31">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="14"/>
+      <c r="G182" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="12"/>
+      <c r="U182" s="12"/>
+      <c r="V182" s="12"/>
+      <c r="W182" s="12"/>
+      <c r="X182" s="12"/>
+      <c r="Y182" s="12"/>
+      <c r="Z182" s="12"/>
+      <c r="AA182" s="12"/>
+      <c r="AB182" s="12"/>
+      <c r="AC182" s="12"/>
+      <c r="AD182" s="12"/>
+      <c r="AE182" s="12"/>
+    </row>
+    <row r="183" ht="108" spans="1:31">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
+      <c r="Q183" s="14"/>
+      <c r="R183" s="12"/>
+      <c r="S183" s="12"/>
+      <c r="T183" s="12"/>
+      <c r="U183" s="12"/>
+      <c r="V183" s="12"/>
+      <c r="W183" s="12"/>
+      <c r="X183" s="12"/>
+      <c r="Y183" s="12"/>
+      <c r="Z183" s="12"/>
+      <c r="AA183" s="12"/>
+      <c r="AB183" s="12"/>
+      <c r="AC183" s="12"/>
+      <c r="AD183" s="12"/>
+      <c r="AE183" s="12"/>
+    </row>
+    <row r="184" ht="108" spans="1:31">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="14"/>
+      <c r="G184" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="H184" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="14"/>
+      <c r="O184" s="14"/>
+      <c r="P184" s="14"/>
+      <c r="Q184" s="14"/>
+      <c r="R184" s="12"/>
+      <c r="S184" s="12"/>
+      <c r="T184" s="12"/>
+      <c r="U184" s="12"/>
+      <c r="V184" s="12"/>
+      <c r="W184" s="12"/>
+      <c r="X184" s="12"/>
+      <c r="Y184" s="12"/>
+      <c r="Z184" s="12"/>
+      <c r="AA184" s="12"/>
+      <c r="AB184" s="12"/>
+      <c r="AC184" s="12"/>
+      <c r="AD184" s="12"/>
+      <c r="AE184" s="12"/>
+    </row>
+    <row r="185" ht="40.5" spans="1:31">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="14"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14"/>
+      <c r="O185" s="14"/>
+      <c r="P185" s="14"/>
+      <c r="Q185" s="14"/>
+      <c r="R185" s="12"/>
+      <c r="S185" s="12"/>
+      <c r="T185" s="12"/>
+      <c r="U185" s="12"/>
+      <c r="V185" s="12"/>
+      <c r="W185" s="12"/>
+      <c r="X185" s="12"/>
+      <c r="Y185" s="12"/>
+      <c r="Z185" s="12"/>
+      <c r="AA185" s="12"/>
+      <c r="AB185" s="12"/>
+      <c r="AC185" s="12"/>
+      <c r="AD185" s="12"/>
+      <c r="AE185" s="12"/>
+    </row>
+    <row r="186" ht="40.5" spans="1:31">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="14"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="14"/>
+      <c r="O186" s="14"/>
+      <c r="P186" s="14"/>
+      <c r="Q186" s="14"/>
+      <c r="R186" s="12"/>
+      <c r="S186" s="12"/>
+      <c r="T186" s="12"/>
+      <c r="U186" s="12"/>
+      <c r="V186" s="12"/>
+      <c r="W186" s="12"/>
+      <c r="X186" s="12"/>
+      <c r="Y186" s="12"/>
+      <c r="Z186" s="12"/>
+      <c r="AA186" s="12"/>
+      <c r="AB186" s="12"/>
+      <c r="AC186" s="12"/>
+      <c r="AD186" s="12"/>
+      <c r="AE186" s="12"/>
+    </row>
+    <row r="187" ht="40.5" spans="1:31">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14"/>
+      <c r="O187" s="14"/>
+      <c r="P187" s="14"/>
+      <c r="Q187" s="14"/>
+      <c r="R187" s="12"/>
+      <c r="S187" s="12"/>
+      <c r="T187" s="12"/>
+      <c r="U187" s="12"/>
+      <c r="V187" s="12"/>
+      <c r="W187" s="12"/>
+      <c r="X187" s="12"/>
+      <c r="Y187" s="12"/>
+      <c r="Z187" s="12"/>
+      <c r="AA187" s="12"/>
+      <c r="AB187" s="12"/>
+      <c r="AC187" s="12"/>
+      <c r="AD187" s="12"/>
+      <c r="AE187" s="12"/>
+    </row>
+    <row r="188" ht="40.5" spans="1:31">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="14"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="14"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="14"/>
+      <c r="P188" s="14"/>
+      <c r="Q188" s="14"/>
+      <c r="R188" s="12"/>
+      <c r="S188" s="12"/>
+      <c r="T188" s="12"/>
+      <c r="U188" s="12"/>
+      <c r="V188" s="12"/>
+      <c r="W188" s="12"/>
+      <c r="X188" s="12"/>
+      <c r="Y188" s="12"/>
+      <c r="Z188" s="12"/>
+      <c r="AA188" s="12"/>
+      <c r="AB188" s="12"/>
+      <c r="AC188" s="12"/>
+      <c r="AD188" s="12"/>
+      <c r="AE188" s="12"/>
+    </row>
+    <row r="189" ht="40.5" spans="1:31">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" s="14"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="14"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="14"/>
+      <c r="O189" s="14"/>
+      <c r="P189" s="14"/>
+      <c r="Q189" s="14"/>
+      <c r="R189" s="12"/>
+      <c r="S189" s="12"/>
+      <c r="T189" s="12"/>
+      <c r="U189" s="12"/>
+      <c r="V189" s="12"/>
+      <c r="W189" s="12"/>
+      <c r="X189" s="12"/>
+      <c r="Y189" s="12"/>
+      <c r="Z189" s="12"/>
+      <c r="AA189" s="12"/>
+      <c r="AB189" s="12"/>
+      <c r="AC189" s="12"/>
+      <c r="AD189" s="12"/>
+      <c r="AE189" s="12"/>
+    </row>
+    <row r="190" ht="40.5" spans="1:31">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" s="14"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="14"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="14"/>
+      <c r="O190" s="14"/>
+      <c r="P190" s="14"/>
+      <c r="Q190" s="14"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+      <c r="U190" s="12"/>
+      <c r="V190" s="12"/>
+      <c r="W190" s="12"/>
+      <c r="X190" s="12"/>
+      <c r="Y190" s="12"/>
+      <c r="Z190" s="12"/>
+      <c r="AA190" s="12"/>
+      <c r="AB190" s="12"/>
+      <c r="AC190" s="12"/>
+      <c r="AD190" s="12"/>
+      <c r="AE190" s="12"/>
+    </row>
+    <row r="191" ht="40.5" spans="1:31">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="14"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="12"/>
+      <c r="T191" s="12"/>
+      <c r="U191" s="12"/>
+      <c r="V191" s="12"/>
+      <c r="W191" s="12"/>
+      <c r="X191" s="12"/>
+      <c r="Y191" s="12"/>
+      <c r="Z191" s="12"/>
+      <c r="AA191" s="12"/>
+      <c r="AB191" s="12"/>
+      <c r="AC191" s="12"/>
+      <c r="AD191" s="12"/>
+      <c r="AE191" s="12"/>
+    </row>
+    <row r="192" spans="1:31">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="14"/>
+      <c r="M192" s="14"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="14"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="12"/>
+      <c r="T192" s="12"/>
+      <c r="U192" s="12"/>
+      <c r="V192" s="12"/>
+      <c r="W192" s="12"/>
+      <c r="X192" s="12"/>
+      <c r="Y192" s="12"/>
+      <c r="Z192" s="12"/>
+      <c r="AA192" s="12"/>
+      <c r="AB192" s="12"/>
+      <c r="AC192" s="12"/>
+      <c r="AD192" s="12"/>
+      <c r="AE192" s="12"/>
+    </row>
+    <row r="193" spans="1:31">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="14"/>
+      <c r="N193" s="14"/>
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="12"/>
+      <c r="T193" s="12"/>
+      <c r="U193" s="12"/>
+      <c r="V193" s="12"/>
+      <c r="W193" s="12"/>
+      <c r="X193" s="12"/>
+      <c r="Y193" s="12"/>
+      <c r="Z193" s="12"/>
+      <c r="AA193" s="12"/>
+      <c r="AB193" s="12"/>
+      <c r="AC193" s="12"/>
+      <c r="AD193" s="12"/>
+      <c r="AE193" s="12"/>
+    </row>
+    <row r="194" spans="1:31">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="14"/>
+      <c r="M194" s="14"/>
+      <c r="N194" s="14"/>
+      <c r="O194" s="14"/>
+      <c r="P194" s="14"/>
+      <c r="Q194" s="14"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="12"/>
+      <c r="T194" s="12"/>
+      <c r="U194" s="12"/>
+      <c r="V194" s="12"/>
+      <c r="W194" s="12"/>
+      <c r="X194" s="12"/>
+      <c r="Y194" s="12"/>
+      <c r="Z194" s="12"/>
+      <c r="AA194" s="12"/>
+      <c r="AB194" s="12"/>
+      <c r="AC194" s="12"/>
+      <c r="AD194" s="12"/>
+      <c r="AE194" s="12"/>
+    </row>
+    <row r="195" spans="1:31">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="18"/>
+      <c r="L195" s="14"/>
+      <c r="M195" s="14"/>
+      <c r="N195" s="14"/>
+      <c r="O195" s="14"/>
+      <c r="P195" s="14"/>
+      <c r="Q195" s="14"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="12"/>
+      <c r="T195" s="12"/>
+      <c r="U195" s="12"/>
+      <c r="V195" s="12"/>
+      <c r="W195" s="12"/>
+      <c r="X195" s="12"/>
+      <c r="Y195" s="12"/>
+      <c r="Z195" s="12"/>
+      <c r="AA195" s="12"/>
+      <c r="AB195" s="12"/>
+      <c r="AC195" s="12"/>
+      <c r="AD195" s="12"/>
+      <c r="AE195" s="12"/>
+    </row>
+    <row r="196" spans="1:31">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="18"/>
+      <c r="L196" s="14"/>
+      <c r="M196" s="14"/>
+      <c r="N196" s="14"/>
+      <c r="O196" s="14"/>
+      <c r="P196" s="14"/>
+      <c r="Q196" s="14"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="12"/>
+      <c r="T196" s="12"/>
+      <c r="U196" s="12"/>
+      <c r="V196" s="12"/>
+      <c r="W196" s="12"/>
+      <c r="X196" s="12"/>
+      <c r="Y196" s="12"/>
+      <c r="Z196" s="12"/>
+      <c r="AA196" s="12"/>
+      <c r="AB196" s="12"/>
+      <c r="AC196" s="12"/>
+      <c r="AD196" s="12"/>
+      <c r="AE196" s="12"/>
+    </row>
+    <row r="197" spans="1:31">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="14"/>
+      <c r="M197" s="14"/>
+      <c r="N197" s="14"/>
+      <c r="O197" s="14"/>
+      <c r="P197" s="14"/>
+      <c r="Q197" s="14"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="12"/>
+      <c r="U197" s="12"/>
+      <c r="V197" s="12"/>
+      <c r="W197" s="12"/>
+      <c r="X197" s="12"/>
+      <c r="Y197" s="12"/>
+      <c r="Z197" s="12"/>
+      <c r="AA197" s="12"/>
+      <c r="AB197" s="12"/>
+      <c r="AC197" s="12"/>
+      <c r="AD197" s="12"/>
+      <c r="AE197" s="12"/>
+    </row>
+    <row r="198" spans="1:31">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="14"/>
+      <c r="M198" s="14"/>
+      <c r="N198" s="14"/>
+      <c r="O198" s="14"/>
+      <c r="P198" s="14"/>
+      <c r="Q198" s="14"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="12"/>
+      <c r="T198" s="12"/>
+      <c r="U198" s="12"/>
+      <c r="V198" s="12"/>
+      <c r="W198" s="12"/>
+      <c r="X198" s="12"/>
+      <c r="Y198" s="12"/>
+      <c r="Z198" s="12"/>
+      <c r="AA198" s="12"/>
+      <c r="AB198" s="12"/>
+      <c r="AC198" s="12"/>
+      <c r="AD198" s="12"/>
+      <c r="AE198" s="12"/>
+    </row>
+    <row r="199" spans="1:31">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="14"/>
+      <c r="M199" s="14"/>
+      <c r="N199" s="14"/>
+      <c r="O199" s="14"/>
+      <c r="P199" s="14"/>
+      <c r="Q199" s="14"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="12"/>
+      <c r="T199" s="12"/>
+      <c r="U199" s="12"/>
+      <c r="V199" s="12"/>
+      <c r="W199" s="12"/>
+      <c r="X199" s="12"/>
+      <c r="Y199" s="12"/>
+      <c r="Z199" s="12"/>
+      <c r="AA199" s="12"/>
+      <c r="AB199" s="12"/>
+      <c r="AC199" s="12"/>
+      <c r="AD199" s="12"/>
+      <c r="AE199" s="12"/>
+    </row>
+    <row r="200" spans="1:31">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="14"/>
+      <c r="M200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="14"/>
+      <c r="P200" s="14"/>
+      <c r="Q200" s="14"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="12"/>
+      <c r="T200" s="12"/>
+      <c r="U200" s="12"/>
+      <c r="V200" s="12"/>
+      <c r="W200" s="12"/>
+      <c r="X200" s="12"/>
+      <c r="Y200" s="12"/>
+      <c r="Z200" s="12"/>
+      <c r="AA200" s="12"/>
+      <c r="AB200" s="12"/>
+      <c r="AC200" s="12"/>
+      <c r="AD200" s="12"/>
+      <c r="AE200" s="12"/>
+    </row>
+    <row r="201" spans="1:31">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="14"/>
+      <c r="M201" s="14"/>
+      <c r="N201" s="14"/>
+      <c r="O201" s="14"/>
+      <c r="P201" s="14"/>
+      <c r="Q201" s="14"/>
+      <c r="R201" s="12"/>
+      <c r="S201" s="12"/>
+      <c r="T201" s="12"/>
+      <c r="U201" s="12"/>
+      <c r="V201" s="12"/>
+      <c r="W201" s="12"/>
+      <c r="X201" s="12"/>
+      <c r="Y201" s="12"/>
+      <c r="Z201" s="12"/>
+      <c r="AA201" s="12"/>
+      <c r="AB201" s="12"/>
+      <c r="AC201" s="12"/>
+      <c r="AD201" s="12"/>
+      <c r="AE201" s="12"/>
+    </row>
+    <row r="202" spans="1:31">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="14"/>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14"/>
+      <c r="P202" s="14"/>
+      <c r="Q202" s="14"/>
+      <c r="R202" s="12"/>
+      <c r="S202" s="12"/>
+      <c r="T202" s="12"/>
+      <c r="U202" s="12"/>
+      <c r="V202" s="12"/>
+      <c r="W202" s="12"/>
+      <c r="X202" s="12"/>
+      <c r="Y202" s="12"/>
+      <c r="Z202" s="12"/>
+      <c r="AA202" s="12"/>
+      <c r="AB202" s="12"/>
+      <c r="AC202" s="12"/>
+      <c r="AD202" s="12"/>
+      <c r="AE202" s="12"/>
+    </row>
+    <row r="203" spans="1:31">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="18"/>
+      <c r="L203" s="14"/>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="14"/>
+      <c r="Q203" s="14"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="12"/>
+      <c r="T203" s="12"/>
+      <c r="U203" s="12"/>
+      <c r="V203" s="12"/>
+      <c r="W203" s="12"/>
+      <c r="X203" s="12"/>
+      <c r="Y203" s="12"/>
+      <c r="Z203" s="12"/>
+      <c r="AA203" s="12"/>
+      <c r="AB203" s="12"/>
+      <c r="AC203" s="12"/>
+      <c r="AD203" s="12"/>
+      <c r="AE203" s="12"/>
+    </row>
+    <row r="204" spans="1:31">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="18"/>
+      <c r="L204" s="14"/>
+      <c r="M204" s="14"/>
+      <c r="N204" s="14"/>
+      <c r="O204" s="14"/>
+      <c r="P204" s="14"/>
+      <c r="Q204" s="14"/>
+      <c r="R204" s="12"/>
+      <c r="S204" s="12"/>
+      <c r="T204" s="12"/>
+      <c r="U204" s="12"/>
+      <c r="V204" s="12"/>
+      <c r="W204" s="12"/>
+      <c r="X204" s="12"/>
+      <c r="Y204" s="12"/>
+      <c r="Z204" s="12"/>
+      <c r="AA204" s="12"/>
+      <c r="AB204" s="12"/>
+      <c r="AC204" s="12"/>
+      <c r="AD204" s="12"/>
+      <c r="AE204" s="12"/>
+    </row>
+    <row r="205" spans="1:31">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="18"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+      <c r="R205" s="12"/>
+      <c r="S205" s="12"/>
+      <c r="T205" s="12"/>
+      <c r="U205" s="12"/>
+      <c r="V205" s="12"/>
+      <c r="W205" s="12"/>
+      <c r="X205" s="12"/>
+      <c r="Y205" s="12"/>
+      <c r="Z205" s="12"/>
+      <c r="AA205" s="12"/>
+      <c r="AB205" s="12"/>
+      <c r="AC205" s="12"/>
+      <c r="AD205" s="12"/>
+      <c r="AE205" s="12"/>
+    </row>
+    <row r="206" spans="1:31">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="14"/>
+      <c r="M206" s="14"/>
+      <c r="N206" s="14"/>
+      <c r="O206" s="14"/>
+      <c r="P206" s="14"/>
+      <c r="Q206" s="14"/>
+      <c r="R206" s="12"/>
+      <c r="S206" s="12"/>
+      <c r="T206" s="12"/>
+      <c r="U206" s="12"/>
+      <c r="V206" s="12"/>
+      <c r="W206" s="12"/>
+      <c r="X206" s="12"/>
+      <c r="Y206" s="12"/>
+      <c r="Z206" s="12"/>
+      <c r="AA206" s="12"/>
+      <c r="AB206" s="12"/>
+      <c r="AC206" s="12"/>
+      <c r="AD206" s="12"/>
+      <c r="AE206" s="12"/>
+    </row>
+    <row r="207" spans="1:31">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="18"/>
+      <c r="L207" s="14"/>
+      <c r="M207" s="14"/>
+      <c r="N207" s="14"/>
+      <c r="O207" s="14"/>
+      <c r="P207" s="14"/>
+      <c r="Q207" s="14"/>
+      <c r="R207" s="12"/>
+      <c r="S207" s="12"/>
+      <c r="T207" s="12"/>
+      <c r="U207" s="12"/>
+      <c r="V207" s="12"/>
+      <c r="W207" s="12"/>
+      <c r="X207" s="12"/>
+      <c r="Y207" s="12"/>
+      <c r="Z207" s="12"/>
+      <c r="AA207" s="12"/>
+      <c r="AB207" s="12"/>
+      <c r="AC207" s="12"/>
+      <c r="AD207" s="12"/>
+      <c r="AE207" s="12"/>
+    </row>
+    <row r="208" spans="1:31">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="14"/>
+      <c r="M208" s="14"/>
+      <c r="N208" s="14"/>
+      <c r="O208" s="14"/>
+      <c r="P208" s="14"/>
+      <c r="Q208" s="14"/>
+      <c r="R208" s="12"/>
+      <c r="S208" s="12"/>
+      <c r="T208" s="12"/>
+      <c r="U208" s="12"/>
+      <c r="V208" s="12"/>
+      <c r="W208" s="12"/>
+      <c r="X208" s="12"/>
+      <c r="Y208" s="12"/>
+      <c r="Z208" s="12"/>
+      <c r="AA208" s="12"/>
+      <c r="AB208" s="12"/>
+      <c r="AC208" s="12"/>
+      <c r="AD208" s="12"/>
+      <c r="AE208" s="12"/>
+    </row>
+    <row r="209" spans="1:31">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="14"/>
+      <c r="M209" s="14"/>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+      <c r="R209" s="12"/>
+      <c r="S209" s="12"/>
+      <c r="T209" s="12"/>
+      <c r="U209" s="12"/>
+      <c r="V209" s="12"/>
+      <c r="W209" s="12"/>
+      <c r="X209" s="12"/>
+      <c r="Y209" s="12"/>
+      <c r="Z209" s="12"/>
+      <c r="AA209" s="12"/>
+      <c r="AB209" s="12"/>
+      <c r="AC209" s="12"/>
+      <c r="AD209" s="12"/>
+      <c r="AE209" s="12"/>
+    </row>
+    <row r="210" spans="1:31">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="18"/>
+      <c r="L210" s="14"/>
+      <c r="M210" s="14"/>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+      <c r="R210" s="12"/>
+      <c r="S210" s="12"/>
+      <c r="T210" s="12"/>
+      <c r="U210" s="12"/>
+      <c r="V210" s="12"/>
+      <c r="W210" s="12"/>
+      <c r="X210" s="12"/>
+      <c r="Y210" s="12"/>
+      <c r="Z210" s="12"/>
+      <c r="AA210" s="12"/>
+      <c r="AB210" s="12"/>
+      <c r="AC210" s="12"/>
+      <c r="AD210" s="12"/>
+      <c r="AE210" s="12"/>
+    </row>
+    <row r="211" spans="1:31">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="18"/>
+      <c r="L211" s="14"/>
+      <c r="M211" s="14"/>
+      <c r="N211" s="14"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="14"/>
+      <c r="Q211" s="14"/>
+      <c r="R211" s="12"/>
+      <c r="S211" s="12"/>
+      <c r="T211" s="12"/>
+      <c r="U211" s="12"/>
+      <c r="V211" s="12"/>
+      <c r="W211" s="12"/>
+      <c r="X211" s="12"/>
+      <c r="Y211" s="12"/>
+      <c r="Z211" s="12"/>
+      <c r="AA211" s="12"/>
+      <c r="AB211" s="12"/>
+      <c r="AC211" s="12"/>
+      <c r="AD211" s="12"/>
+      <c r="AE211" s="12"/>
+    </row>
+    <row r="212" spans="1:31">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="18"/>
+      <c r="L212" s="14"/>
+      <c r="M212" s="14"/>
+      <c r="N212" s="14"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+      <c r="R212" s="12"/>
+      <c r="S212" s="12"/>
+      <c r="T212" s="12"/>
+      <c r="U212" s="12"/>
+      <c r="V212" s="12"/>
+      <c r="W212" s="12"/>
+      <c r="X212" s="12"/>
+      <c r="Y212" s="12"/>
+      <c r="Z212" s="12"/>
+      <c r="AA212" s="12"/>
+      <c r="AB212" s="12"/>
+      <c r="AC212" s="12"/>
+      <c r="AD212" s="12"/>
+      <c r="AE212" s="12"/>
+    </row>
+    <row r="213" spans="1:31">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="18"/>
+      <c r="L213" s="14"/>
+      <c r="M213" s="14"/>
+      <c r="N213" s="14"/>
+      <c r="O213" s="14"/>
+      <c r="P213" s="14"/>
+      <c r="Q213" s="14"/>
+      <c r="R213" s="12"/>
+      <c r="S213" s="12"/>
+      <c r="T213" s="12"/>
+      <c r="U213" s="12"/>
+      <c r="V213" s="12"/>
+      <c r="W213" s="12"/>
+      <c r="X213" s="12"/>
+      <c r="Y213" s="12"/>
+      <c r="Z213" s="12"/>
+      <c r="AA213" s="12"/>
+      <c r="AB213" s="12"/>
+      <c r="AC213" s="12"/>
+      <c r="AD213" s="12"/>
+      <c r="AE213" s="12"/>
+    </row>
+    <row r="214" spans="1:31">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="18"/>
+      <c r="L214" s="14"/>
+      <c r="M214" s="14"/>
+      <c r="N214" s="14"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
+      <c r="R214" s="12"/>
+      <c r="S214" s="12"/>
+      <c r="T214" s="12"/>
+      <c r="U214" s="12"/>
+      <c r="V214" s="12"/>
+      <c r="W214" s="12"/>
+      <c r="X214" s="12"/>
+      <c r="Y214" s="12"/>
+      <c r="Z214" s="12"/>
+      <c r="AA214" s="12"/>
+      <c r="AB214" s="12"/>
+      <c r="AC214" s="12"/>
+      <c r="AD214" s="12"/>
+      <c r="AE214" s="12"/>
+    </row>
+    <row r="215" spans="1:31">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="18"/>
+      <c r="L215" s="14"/>
+      <c r="M215" s="14"/>
+      <c r="N215" s="14"/>
+      <c r="O215" s="14"/>
+      <c r="P215" s="14"/>
+      <c r="Q215" s="14"/>
+      <c r="R215" s="12"/>
+      <c r="S215" s="12"/>
+      <c r="T215" s="12"/>
+      <c r="U215" s="12"/>
+      <c r="V215" s="12"/>
+      <c r="W215" s="12"/>
+      <c r="X215" s="12"/>
+      <c r="Y215" s="12"/>
+      <c r="Z215" s="12"/>
+      <c r="AA215" s="12"/>
+      <c r="AB215" s="12"/>
+      <c r="AC215" s="12"/>
+      <c r="AD215" s="12"/>
+      <c r="AE215" s="12"/>
+    </row>
+    <row r="216" spans="1:31">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="17"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="18"/>
+      <c r="L216" s="14"/>
+      <c r="M216" s="14"/>
+      <c r="N216" s="14"/>
+      <c r="O216" s="14"/>
+      <c r="P216" s="14"/>
+      <c r="Q216" s="14"/>
+      <c r="R216" s="12"/>
+      <c r="S216" s="12"/>
+      <c r="T216" s="12"/>
+      <c r="U216" s="12"/>
+      <c r="V216" s="12"/>
+      <c r="W216" s="12"/>
+      <c r="X216" s="12"/>
+      <c r="Y216" s="12"/>
+      <c r="Z216" s="12"/>
+      <c r="AA216" s="12"/>
+      <c r="AB216" s="12"/>
+      <c r="AC216" s="12"/>
+      <c r="AD216" s="12"/>
+      <c r="AE216" s="12"/>
+    </row>
+    <row r="217" spans="1:31">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="18"/>
+      <c r="L217" s="14"/>
+      <c r="M217" s="14"/>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
+      <c r="P217" s="14"/>
+      <c r="Q217" s="14"/>
+      <c r="R217" s="12"/>
+      <c r="S217" s="12"/>
+      <c r="T217" s="12"/>
+      <c r="U217" s="12"/>
+      <c r="V217" s="12"/>
+      <c r="W217" s="12"/>
+      <c r="X217" s="12"/>
+      <c r="Y217" s="12"/>
+      <c r="Z217" s="12"/>
+      <c r="AA217" s="12"/>
+      <c r="AB217" s="12"/>
+      <c r="AC217" s="12"/>
+      <c r="AD217" s="12"/>
+      <c r="AE217" s="12"/>
+    </row>
+    <row r="218" spans="1:31">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="18"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="14"/>
+      <c r="N218" s="14"/>
+      <c r="O218" s="14"/>
+      <c r="P218" s="14"/>
+      <c r="Q218" s="14"/>
+      <c r="R218" s="12"/>
+      <c r="S218" s="12"/>
+      <c r="T218" s="12"/>
+      <c r="U218" s="12"/>
+      <c r="V218" s="12"/>
+      <c r="W218" s="12"/>
+      <c r="X218" s="12"/>
+      <c r="Y218" s="12"/>
+      <c r="Z218" s="12"/>
+      <c r="AA218" s="12"/>
+      <c r="AB218" s="12"/>
+      <c r="AC218" s="12"/>
+      <c r="AD218" s="12"/>
+      <c r="AE218" s="12"/>
+    </row>
+    <row r="219" spans="1:31">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="15"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="18"/>
+      <c r="L219" s="14"/>
+      <c r="M219" s="14"/>
+      <c r="N219" s="14"/>
+      <c r="O219" s="14"/>
+      <c r="P219" s="14"/>
+      <c r="Q219" s="14"/>
+      <c r="R219" s="12"/>
+      <c r="S219" s="12"/>
+      <c r="T219" s="12"/>
+      <c r="U219" s="12"/>
+      <c r="V219" s="12"/>
+      <c r="W219" s="12"/>
+      <c r="X219" s="12"/>
+      <c r="Y219" s="12"/>
+      <c r="Z219" s="12"/>
+      <c r="AA219" s="12"/>
+      <c r="AB219" s="12"/>
+      <c r="AC219" s="12"/>
+      <c r="AD219" s="12"/>
+      <c r="AE219" s="12"/>
+    </row>
+    <row r="220" spans="1:31">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="15"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="18"/>
+      <c r="L220" s="14"/>
+      <c r="M220" s="14"/>
+      <c r="N220" s="14"/>
+      <c r="O220" s="14"/>
+      <c r="P220" s="14"/>
+      <c r="Q220" s="14"/>
+      <c r="R220" s="12"/>
+      <c r="S220" s="12"/>
+      <c r="T220" s="12"/>
+      <c r="U220" s="12"/>
+      <c r="V220" s="12"/>
+      <c r="W220" s="12"/>
+      <c r="X220" s="12"/>
+      <c r="Y220" s="12"/>
+      <c r="Z220" s="12"/>
+      <c r="AA220" s="12"/>
+      <c r="AB220" s="12"/>
+      <c r="AC220" s="12"/>
+      <c r="AD220" s="12"/>
+      <c r="AE220" s="12"/>
+    </row>
+    <row r="221" spans="1:31">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="18"/>
+      <c r="L221" s="14"/>
+      <c r="M221" s="14"/>
+      <c r="N221" s="14"/>
+      <c r="O221" s="14"/>
+      <c r="P221" s="14"/>
+      <c r="Q221" s="14"/>
+      <c r="R221" s="12"/>
+      <c r="S221" s="12"/>
+      <c r="T221" s="12"/>
+      <c r="U221" s="12"/>
+      <c r="V221" s="12"/>
+      <c r="W221" s="12"/>
+      <c r="X221" s="12"/>
+      <c r="Y221" s="12"/>
+      <c r="Z221" s="12"/>
+      <c r="AA221" s="12"/>
+      <c r="AB221" s="12"/>
+      <c r="AC221" s="12"/>
+      <c r="AD221" s="12"/>
+      <c r="AE221" s="12"/>
+    </row>
+    <row r="222" spans="1:31">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="18"/>
+      <c r="L222" s="14"/>
+      <c r="M222" s="14"/>
+      <c r="N222" s="14"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="14"/>
+      <c r="Q222" s="14"/>
+      <c r="R222" s="12"/>
+      <c r="S222" s="12"/>
+      <c r="T222" s="12"/>
+      <c r="U222" s="12"/>
+      <c r="V222" s="12"/>
+      <c r="W222" s="12"/>
+      <c r="X222" s="12"/>
+      <c r="Y222" s="12"/>
+      <c r="Z222" s="12"/>
+      <c r="AA222" s="12"/>
+      <c r="AB222" s="12"/>
+      <c r="AC222" s="12"/>
+      <c r="AD222" s="12"/>
+      <c r="AE222" s="12"/>
+    </row>
+    <row r="223" spans="1:31">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="15"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="18"/>
+      <c r="L223" s="14"/>
+      <c r="M223" s="14"/>
+      <c r="N223" s="14"/>
+      <c r="O223" s="14"/>
+      <c r="P223" s="14"/>
+      <c r="Q223" s="14"/>
+      <c r="R223" s="12"/>
+      <c r="S223" s="12"/>
+      <c r="T223" s="12"/>
+      <c r="U223" s="12"/>
+      <c r="V223" s="12"/>
+      <c r="W223" s="12"/>
+      <c r="X223" s="12"/>
+      <c r="Y223" s="12"/>
+      <c r="Z223" s="12"/>
+      <c r="AA223" s="12"/>
+      <c r="AB223" s="12"/>
+      <c r="AC223" s="12"/>
+      <c r="AD223" s="12"/>
+      <c r="AE223" s="12"/>
+    </row>
+    <row r="224" spans="1:31">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="15"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="18"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="14"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="14"/>
+      <c r="Q224" s="14"/>
+      <c r="R224" s="12"/>
+      <c r="S224" s="12"/>
+      <c r="T224" s="12"/>
+      <c r="U224" s="12"/>
+      <c r="V224" s="12"/>
+      <c r="W224" s="12"/>
+      <c r="X224" s="12"/>
+      <c r="Y224" s="12"/>
+      <c r="Z224" s="12"/>
+      <c r="AA224" s="12"/>
+      <c r="AB224" s="12"/>
+      <c r="AC224" s="12"/>
+      <c r="AD224" s="12"/>
+      <c r="AE224" s="12"/>
+    </row>
+    <row r="225" spans="1:31">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="15"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="18"/>
+      <c r="L225" s="14"/>
+      <c r="M225" s="14"/>
+      <c r="N225" s="14"/>
+      <c r="O225" s="14"/>
+      <c r="P225" s="14"/>
+      <c r="Q225" s="14"/>
+      <c r="R225" s="12"/>
+      <c r="S225" s="12"/>
+      <c r="T225" s="12"/>
+      <c r="U225" s="12"/>
+      <c r="V225" s="12"/>
+      <c r="W225" s="12"/>
+      <c r="X225" s="12"/>
+      <c r="Y225" s="12"/>
+      <c r="Z225" s="12"/>
+      <c r="AA225" s="12"/>
+      <c r="AB225" s="12"/>
+      <c r="AC225" s="12"/>
+      <c r="AD225" s="12"/>
+      <c r="AE225" s="12"/>
+    </row>
+    <row r="226" spans="1:31">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="18"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="14"/>
+      <c r="N226" s="14"/>
+      <c r="O226" s="14"/>
+      <c r="P226" s="14"/>
+      <c r="Q226" s="14"/>
+      <c r="R226" s="12"/>
+      <c r="S226" s="12"/>
+      <c r="T226" s="12"/>
+      <c r="U226" s="12"/>
+      <c r="V226" s="12"/>
+      <c r="W226" s="12"/>
+      <c r="X226" s="12"/>
+      <c r="Y226" s="12"/>
+      <c r="Z226" s="12"/>
+      <c r="AA226" s="12"/>
+      <c r="AB226" s="12"/>
+      <c r="AC226" s="12"/>
+      <c r="AD226" s="12"/>
+      <c r="AE226" s="12"/>
+    </row>
+    <row r="227" spans="1:31">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="15"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="18"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="14"/>
+      <c r="N227" s="14"/>
+      <c r="O227" s="14"/>
+      <c r="P227" s="14"/>
+      <c r="Q227" s="14"/>
+      <c r="R227" s="12"/>
+      <c r="S227" s="12"/>
+      <c r="T227" s="12"/>
+      <c r="U227" s="12"/>
+      <c r="V227" s="12"/>
+      <c r="W227" s="12"/>
+      <c r="X227" s="12"/>
+      <c r="Y227" s="12"/>
+      <c r="Z227" s="12"/>
+      <c r="AA227" s="12"/>
+      <c r="AB227" s="12"/>
+      <c r="AC227" s="12"/>
+      <c r="AD227" s="12"/>
+      <c r="AE227" s="12"/>
+    </row>
+    <row r="228" spans="1:31">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="15"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
+      <c r="K228" s="18"/>
+      <c r="L228" s="14"/>
+      <c r="M228" s="14"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="14"/>
+      <c r="P228" s="14"/>
+      <c r="Q228" s="14"/>
+      <c r="R228" s="12"/>
+      <c r="S228" s="12"/>
+      <c r="T228" s="12"/>
+      <c r="U228" s="12"/>
+      <c r="V228" s="12"/>
+      <c r="W228" s="12"/>
+      <c r="X228" s="12"/>
+      <c r="Y228" s="12"/>
+      <c r="Z228" s="12"/>
+      <c r="AA228" s="12"/>
+      <c r="AB228" s="12"/>
+      <c r="AC228" s="12"/>
+      <c r="AD228" s="12"/>
+      <c r="AE228" s="12"/>
+    </row>
+    <row r="229" spans="1:31">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="15"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="18"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
+      <c r="P229" s="14"/>
+      <c r="Q229" s="14"/>
+      <c r="R229" s="12"/>
+      <c r="S229" s="12"/>
+      <c r="T229" s="12"/>
+      <c r="U229" s="12"/>
+      <c r="V229" s="12"/>
+      <c r="W229" s="12"/>
+      <c r="X229" s="12"/>
+      <c r="Y229" s="12"/>
+      <c r="Z229" s="12"/>
+      <c r="AA229" s="12"/>
+      <c r="AB229" s="12"/>
+      <c r="AC229" s="12"/>
+      <c r="AD229" s="12"/>
+      <c r="AE229" s="12"/>
+    </row>
+    <row r="230" spans="1:31">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="16"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="15"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="18"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+      <c r="R230" s="12"/>
+      <c r="S230" s="12"/>
+      <c r="T230" s="12"/>
+      <c r="U230" s="12"/>
+      <c r="V230" s="12"/>
+      <c r="W230" s="12"/>
+      <c r="X230" s="12"/>
+      <c r="Y230" s="12"/>
+      <c r="Z230" s="12"/>
+      <c r="AA230" s="12"/>
+      <c r="AB230" s="12"/>
+      <c r="AC230" s="12"/>
+      <c r="AD230" s="12"/>
+      <c r="AE230" s="12"/>
+    </row>
+    <row r="231" spans="1:31">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="15"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="18"/>
+      <c r="L231" s="14"/>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
+      <c r="P231" s="14"/>
+      <c r="Q231" s="14"/>
+      <c r="R231" s="12"/>
+      <c r="S231" s="12"/>
+      <c r="T231" s="12"/>
+      <c r="U231" s="12"/>
+      <c r="V231" s="12"/>
+      <c r="W231" s="12"/>
+      <c r="X231" s="12"/>
+      <c r="Y231" s="12"/>
+      <c r="Z231" s="12"/>
+      <c r="AA231" s="12"/>
+      <c r="AB231" s="12"/>
+      <c r="AC231" s="12"/>
+      <c r="AD231" s="12"/>
+      <c r="AE231" s="12"/>
+    </row>
+    <row r="232" spans="1:31">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
+      <c r="K232" s="18"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+      <c r="R232" s="12"/>
+      <c r="S232" s="12"/>
+      <c r="T232" s="12"/>
+      <c r="U232" s="12"/>
+      <c r="V232" s="12"/>
+      <c r="W232" s="12"/>
+      <c r="X232" s="12"/>
+      <c r="Y232" s="12"/>
+      <c r="Z232" s="12"/>
+      <c r="AA232" s="12"/>
+      <c r="AB232" s="12"/>
+      <c r="AC232" s="12"/>
+      <c r="AD232" s="12"/>
+      <c r="AE232" s="12"/>
+    </row>
+    <row r="233" spans="1:31">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="18"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+      <c r="R233" s="12"/>
+      <c r="S233" s="12"/>
+      <c r="T233" s="12"/>
+      <c r="U233" s="12"/>
+      <c r="V233" s="12"/>
+      <c r="W233" s="12"/>
+      <c r="X233" s="12"/>
+      <c r="Y233" s="12"/>
+      <c r="Z233" s="12"/>
+      <c r="AA233" s="12"/>
+      <c r="AB233" s="12"/>
+      <c r="AC233" s="12"/>
+      <c r="AD233" s="12"/>
+      <c r="AE233" s="12"/>
+    </row>
+    <row r="234" spans="1:31">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="18"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="14"/>
+      <c r="P234" s="14"/>
+      <c r="Q234" s="14"/>
+      <c r="R234" s="12"/>
+      <c r="S234" s="12"/>
+      <c r="T234" s="12"/>
+      <c r="U234" s="12"/>
+      <c r="V234" s="12"/>
+      <c r="W234" s="12"/>
+      <c r="X234" s="12"/>
+      <c r="Y234" s="12"/>
+      <c r="Z234" s="12"/>
+      <c r="AA234" s="12"/>
+      <c r="AB234" s="12"/>
+      <c r="AC234" s="12"/>
+      <c r="AD234" s="12"/>
+      <c r="AE234" s="12"/>
+    </row>
+    <row r="235" spans="1:31">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="15"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="18"/>
+      <c r="L235" s="14"/>
+      <c r="M235" s="14"/>
+      <c r="N235" s="14"/>
+      <c r="O235" s="14"/>
+      <c r="P235" s="14"/>
+      <c r="Q235" s="14"/>
+      <c r="R235" s="12"/>
+      <c r="S235" s="12"/>
+      <c r="T235" s="12"/>
+      <c r="U235" s="12"/>
+      <c r="V235" s="12"/>
+      <c r="W235" s="12"/>
+      <c r="X235" s="12"/>
+      <c r="Y235" s="12"/>
+      <c r="Z235" s="12"/>
+      <c r="AA235" s="12"/>
+      <c r="AB235" s="12"/>
+      <c r="AC235" s="12"/>
+      <c r="AD235" s="12"/>
+      <c r="AE235" s="12"/>
+    </row>
+    <row r="236" spans="1:31">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="20"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="18"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="14"/>
+      <c r="N236" s="14"/>
+      <c r="O236" s="14"/>
+      <c r="P236" s="14"/>
+      <c r="Q236" s="14"/>
+      <c r="R236" s="12"/>
+      <c r="S236" s="12"/>
+      <c r="T236" s="12"/>
+      <c r="U236" s="12"/>
+      <c r="V236" s="12"/>
+      <c r="W236" s="12"/>
+      <c r="X236" s="12"/>
+      <c r="Y236" s="12"/>
+      <c r="Z236" s="12"/>
+      <c r="AA236" s="12"/>
+      <c r="AB236" s="12"/>
+      <c r="AC236" s="12"/>
+      <c r="AD236" s="12"/>
+      <c r="AE236" s="12"/>
+    </row>
+    <row r="237" spans="1:31">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="18"/>
+      <c r="L237" s="14"/>
+      <c r="M237" s="14"/>
+      <c r="N237" s="14"/>
+      <c r="O237" s="14"/>
+      <c r="P237" s="14"/>
+      <c r="Q237" s="14"/>
+      <c r="R237" s="12"/>
+      <c r="S237" s="12"/>
+      <c r="T237" s="12"/>
+      <c r="U237" s="12"/>
+      <c r="V237" s="12"/>
+      <c r="W237" s="12"/>
+      <c r="X237" s="12"/>
+      <c r="Y237" s="12"/>
+      <c r="Z237" s="12"/>
+      <c r="AA237" s="12"/>
+      <c r="AB237" s="12"/>
+      <c r="AC237" s="12"/>
+      <c r="AD237" s="12"/>
+      <c r="AE237" s="12"/>
+    </row>
+    <row r="238" spans="1:31">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="20"/>
+      <c r="H238" s="15"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="18"/>
+      <c r="L238" s="14"/>
+      <c r="M238" s="14"/>
+      <c r="N238" s="14"/>
+      <c r="O238" s="14"/>
+      <c r="P238" s="14"/>
+      <c r="Q238" s="14"/>
+      <c r="R238" s="12"/>
+      <c r="S238" s="12"/>
+      <c r="T238" s="12"/>
+      <c r="U238" s="12"/>
+      <c r="V238" s="12"/>
+      <c r="W238" s="12"/>
+      <c r="X238" s="12"/>
+      <c r="Y238" s="12"/>
+      <c r="Z238" s="12"/>
+      <c r="AA238" s="12"/>
+      <c r="AB238" s="12"/>
+      <c r="AC238" s="12"/>
+      <c r="AD238" s="12"/>
+      <c r="AE238" s="12"/>
+    </row>
+    <row r="239" spans="1:31">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="15"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="18"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="14"/>
+      <c r="N239" s="14"/>
+      <c r="O239" s="14"/>
+      <c r="P239" s="14"/>
+      <c r="Q239" s="14"/>
+      <c r="R239" s="12"/>
+      <c r="S239" s="12"/>
+      <c r="T239" s="12"/>
+      <c r="U239" s="12"/>
+      <c r="V239" s="12"/>
+      <c r="W239" s="12"/>
+      <c r="X239" s="12"/>
+      <c r="Y239" s="12"/>
+      <c r="Z239" s="12"/>
+      <c r="AA239" s="12"/>
+      <c r="AB239" s="12"/>
+      <c r="AC239" s="12"/>
+      <c r="AD239" s="12"/>
+      <c r="AE239" s="12"/>
+    </row>
+    <row r="240" spans="1:31">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="18"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="14"/>
+      <c r="N240" s="14"/>
+      <c r="O240" s="14"/>
+      <c r="P240" s="14"/>
+      <c r="Q240" s="14"/>
+      <c r="R240" s="12"/>
+      <c r="S240" s="12"/>
+      <c r="T240" s="12"/>
+      <c r="U240" s="12"/>
+      <c r="V240" s="12"/>
+      <c r="W240" s="12"/>
+      <c r="X240" s="12"/>
+      <c r="Y240" s="12"/>
+      <c r="Z240" s="12"/>
+      <c r="AA240" s="12"/>
+      <c r="AB240" s="12"/>
+      <c r="AC240" s="12"/>
+      <c r="AD240" s="12"/>
+      <c r="AE240" s="12"/>
+    </row>
+    <row r="241" spans="1:31">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="18"/>
+      <c r="L241" s="14"/>
+      <c r="M241" s="14"/>
+      <c r="N241" s="14"/>
+      <c r="O241" s="14"/>
+      <c r="P241" s="14"/>
+      <c r="Q241" s="14"/>
+      <c r="R241" s="12"/>
+      <c r="S241" s="12"/>
+      <c r="T241" s="12"/>
+      <c r="U241" s="12"/>
+      <c r="V241" s="12"/>
+      <c r="W241" s="12"/>
+      <c r="X241" s="12"/>
+      <c r="Y241" s="12"/>
+      <c r="Z241" s="12"/>
+      <c r="AA241" s="12"/>
+      <c r="AB241" s="12"/>
+      <c r="AC241" s="12"/>
+      <c r="AD241" s="12"/>
+      <c r="AE241" s="12"/>
+    </row>
+    <row r="242" spans="1:31">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="16"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="20"/>
+      <c r="H242" s="15"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="18"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+      <c r="R242" s="12"/>
+      <c r="S242" s="12"/>
+      <c r="T242" s="12"/>
+      <c r="U242" s="12"/>
+      <c r="V242" s="12"/>
+      <c r="W242" s="12"/>
+      <c r="X242" s="12"/>
+      <c r="Y242" s="12"/>
+      <c r="Z242" s="12"/>
+      <c r="AA242" s="12"/>
+      <c r="AB242" s="12"/>
+      <c r="AC242" s="12"/>
+      <c r="AD242" s="12"/>
+      <c r="AE242" s="12"/>
+    </row>
+    <row r="243" spans="1:31">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="18"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
+      <c r="P243" s="14"/>
+      <c r="Q243" s="14"/>
+      <c r="R243" s="12"/>
+      <c r="S243" s="12"/>
+      <c r="T243" s="12"/>
+      <c r="U243" s="12"/>
+      <c r="V243" s="12"/>
+      <c r="W243" s="12"/>
+      <c r="X243" s="12"/>
+      <c r="Y243" s="12"/>
+      <c r="Z243" s="12"/>
+      <c r="AA243" s="12"/>
+      <c r="AB243" s="12"/>
+      <c r="AC243" s="12"/>
+      <c r="AD243" s="12"/>
+      <c r="AE243" s="12"/>
+    </row>
+    <row r="244" spans="1:31">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="18"/>
+      <c r="L244" s="14"/>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
+      <c r="P244" s="14"/>
+      <c r="Q244" s="14"/>
+      <c r="R244" s="12"/>
+      <c r="S244" s="12"/>
+      <c r="T244" s="12"/>
+      <c r="U244" s="12"/>
+      <c r="V244" s="12"/>
+      <c r="W244" s="12"/>
+      <c r="X244" s="12"/>
+      <c r="Y244" s="12"/>
+      <c r="Z244" s="12"/>
+      <c r="AA244" s="12"/>
+      <c r="AB244" s="12"/>
+      <c r="AC244" s="12"/>
+      <c r="AD244" s="12"/>
+      <c r="AE244" s="12"/>
+    </row>
+    <row r="245" spans="1:31">
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="20"/>
+      <c r="H245" s="15"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="18"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
+      <c r="P245" s="14"/>
+      <c r="Q245" s="14"/>
+      <c r="R245" s="12"/>
+      <c r="S245" s="12"/>
+      <c r="T245" s="12"/>
+      <c r="U245" s="12"/>
+      <c r="V245" s="12"/>
+      <c r="W245" s="12"/>
+      <c r="X245" s="12"/>
+      <c r="Y245" s="12"/>
+      <c r="Z245" s="12"/>
+      <c r="AA245" s="12"/>
+      <c r="AB245" s="12"/>
+      <c r="AC245" s="12"/>
+      <c r="AD245" s="12"/>
+      <c r="AE245" s="12"/>
+    </row>
+    <row r="246" spans="1:31">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="20"/>
+      <c r="H246" s="15"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="18"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
+      <c r="P246" s="14"/>
+      <c r="Q246" s="14"/>
+      <c r="R246" s="12"/>
+      <c r="S246" s="12"/>
+      <c r="T246" s="12"/>
+      <c r="U246" s="12"/>
+      <c r="V246" s="12"/>
+      <c r="W246" s="12"/>
+      <c r="X246" s="12"/>
+      <c r="Y246" s="12"/>
+      <c r="Z246" s="12"/>
+      <c r="AA246" s="12"/>
+      <c r="AB246" s="12"/>
+      <c r="AC246" s="12"/>
+      <c r="AD246" s="12"/>
+      <c r="AE246" s="12"/>
+    </row>
+    <row r="247" spans="1:31">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="16"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="20"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="18"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
+      <c r="P247" s="14"/>
+      <c r="Q247" s="14"/>
+      <c r="R247" s="12"/>
+      <c r="S247" s="12"/>
+      <c r="T247" s="12"/>
+      <c r="U247" s="12"/>
+      <c r="V247" s="12"/>
+      <c r="W247" s="12"/>
+      <c r="X247" s="12"/>
+      <c r="Y247" s="12"/>
+      <c r="Z247" s="12"/>
+      <c r="AA247" s="12"/>
+      <c r="AB247" s="12"/>
+      <c r="AC247" s="12"/>
+      <c r="AD247" s="12"/>
+      <c r="AE247" s="12"/>
+    </row>
+    <row r="248" spans="1:31">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="20"/>
+      <c r="H248" s="15"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="18"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
+      <c r="P248" s="14"/>
+      <c r="Q248" s="14"/>
+      <c r="R248" s="12"/>
+      <c r="S248" s="12"/>
+      <c r="T248" s="12"/>
+      <c r="U248" s="12"/>
+      <c r="V248" s="12"/>
+      <c r="W248" s="12"/>
+      <c r="X248" s="12"/>
+      <c r="Y248" s="12"/>
+      <c r="Z248" s="12"/>
+      <c r="AA248" s="12"/>
+      <c r="AB248" s="12"/>
+      <c r="AC248" s="12"/>
+      <c r="AD248" s="12"/>
+      <c r="AE248" s="12"/>
+    </row>
+    <row r="249" spans="1:31">
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="18"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
+      <c r="P249" s="14"/>
+      <c r="Q249" s="14"/>
+      <c r="R249" s="12"/>
+      <c r="S249" s="12"/>
+      <c r="T249" s="12"/>
+      <c r="U249" s="12"/>
+      <c r="V249" s="12"/>
+      <c r="W249" s="12"/>
+      <c r="X249" s="12"/>
+      <c r="Y249" s="12"/>
+      <c r="Z249" s="12"/>
+      <c r="AA249" s="12"/>
+      <c r="AB249" s="12"/>
+      <c r="AC249" s="12"/>
+      <c r="AD249" s="12"/>
+      <c r="AE249" s="12"/>
+    </row>
+    <row r="250" spans="1:31">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="16"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="15"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="18"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="14"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="14"/>
+      <c r="P250" s="14"/>
+      <c r="Q250" s="14"/>
+      <c r="R250" s="12"/>
+      <c r="S250" s="12"/>
+      <c r="T250" s="12"/>
+      <c r="U250" s="12"/>
+      <c r="V250" s="12"/>
+      <c r="W250" s="12"/>
+      <c r="X250" s="12"/>
+      <c r="Y250" s="12"/>
+      <c r="Z250" s="12"/>
+      <c r="AA250" s="12"/>
+      <c r="AB250" s="12"/>
+      <c r="AC250" s="12"/>
+      <c r="AD250" s="12"/>
+      <c r="AE250" s="12"/>
+    </row>
+    <row r="251" spans="1:31">
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="20"/>
+      <c r="H251" s="15"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="18"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="14"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="14"/>
+      <c r="P251" s="14"/>
+      <c r="Q251" s="14"/>
+      <c r="R251" s="12"/>
+      <c r="S251" s="12"/>
+      <c r="T251" s="12"/>
+      <c r="U251" s="12"/>
+      <c r="V251" s="12"/>
+      <c r="W251" s="12"/>
+      <c r="X251" s="12"/>
+      <c r="Y251" s="12"/>
+      <c r="Z251" s="12"/>
+      <c r="AA251" s="12"/>
+      <c r="AB251" s="12"/>
+      <c r="AC251" s="12"/>
+      <c r="AD251" s="12"/>
+      <c r="AE251" s="12"/>
+    </row>
+    <row r="252" spans="1:31">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="20"/>
+      <c r="H252" s="15"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="18"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="14"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="14"/>
+      <c r="P252" s="14"/>
+      <c r="Q252" s="14"/>
+      <c r="R252" s="12"/>
+      <c r="S252" s="12"/>
+      <c r="T252" s="12"/>
+      <c r="U252" s="12"/>
+      <c r="V252" s="12"/>
+      <c r="W252" s="12"/>
+      <c r="X252" s="12"/>
+      <c r="Y252" s="12"/>
+      <c r="Z252" s="12"/>
+      <c r="AA252" s="12"/>
+      <c r="AB252" s="12"/>
+      <c r="AC252" s="12"/>
+      <c r="AD252" s="12"/>
+      <c r="AE252" s="12"/>
+    </row>
+    <row r="253" spans="1:31">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="15"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="18"/>
+      <c r="L253" s="14"/>
+      <c r="M253" s="14"/>
+      <c r="N253" s="14"/>
+      <c r="O253" s="14"/>
+      <c r="P253" s="14"/>
+      <c r="Q253" s="14"/>
+      <c r="R253" s="12"/>
+      <c r="S253" s="12"/>
+      <c r="T253" s="12"/>
+      <c r="U253" s="12"/>
+      <c r="V253" s="12"/>
+      <c r="W253" s="12"/>
+      <c r="X253" s="12"/>
+      <c r="Y253" s="12"/>
+      <c r="Z253" s="12"/>
+      <c r="AA253" s="12"/>
+      <c r="AB253" s="12"/>
+      <c r="AC253" s="12"/>
+      <c r="AD253" s="12"/>
+      <c r="AE253" s="12"/>
+    </row>
+    <row r="254" spans="1:31">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="15"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="18"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="14"/>
+      <c r="N254" s="14"/>
+      <c r="O254" s="14"/>
+      <c r="P254" s="14"/>
+      <c r="Q254" s="14"/>
+      <c r="R254" s="12"/>
+      <c r="S254" s="12"/>
+      <c r="T254" s="12"/>
+      <c r="U254" s="12"/>
+      <c r="V254" s="12"/>
+      <c r="W254" s="12"/>
+      <c r="X254" s="12"/>
+      <c r="Y254" s="12"/>
+      <c r="Z254" s="12"/>
+      <c r="AA254" s="12"/>
+      <c r="AB254" s="12"/>
+      <c r="AC254" s="12"/>
+      <c r="AD254" s="12"/>
+      <c r="AE254" s="12"/>
+    </row>
+    <row r="255" spans="1:31">
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="15"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="18"/>
+      <c r="L255" s="14"/>
+      <c r="M255" s="14"/>
+      <c r="N255" s="14"/>
+      <c r="O255" s="14"/>
+      <c r="P255" s="14"/>
+      <c r="Q255" s="14"/>
+      <c r="R255" s="12"/>
+      <c r="S255" s="12"/>
+      <c r="T255" s="12"/>
+      <c r="U255" s="12"/>
+      <c r="V255" s="12"/>
+      <c r="W255" s="12"/>
+      <c r="X255" s="12"/>
+      <c r="Y255" s="12"/>
+      <c r="Z255" s="12"/>
+      <c r="AA255" s="12"/>
+      <c r="AB255" s="12"/>
+      <c r="AC255" s="12"/>
+      <c r="AD255" s="12"/>
+      <c r="AE255" s="12"/>
+    </row>
+    <row r="256" spans="1:31">
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="15"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="15"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="18"/>
+      <c r="L256" s="14"/>
+      <c r="M256" s="14"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
+      <c r="P256" s="14"/>
+      <c r="Q256" s="14"/>
+      <c r="R256" s="12"/>
+      <c r="S256" s="12"/>
+      <c r="T256" s="12"/>
+      <c r="U256" s="12"/>
+      <c r="V256" s="12"/>
+      <c r="W256" s="12"/>
+      <c r="X256" s="12"/>
+      <c r="Y256" s="12"/>
+      <c r="Z256" s="12"/>
+      <c r="AA256" s="12"/>
+      <c r="AB256" s="12"/>
+      <c r="AC256" s="12"/>
+      <c r="AD256" s="12"/>
+      <c r="AE256" s="12"/>
+    </row>
+    <row r="257" spans="1:31">
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="16"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="20"/>
+      <c r="H257" s="15"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="18"/>
+      <c r="L257" s="14"/>
+      <c r="M257" s="14"/>
+      <c r="N257" s="14"/>
+      <c r="O257" s="14"/>
+      <c r="P257" s="14"/>
+      <c r="Q257" s="14"/>
+      <c r="R257" s="12"/>
+      <c r="S257" s="12"/>
+      <c r="T257" s="12"/>
+      <c r="U257" s="12"/>
+      <c r="V257" s="12"/>
+      <c r="W257" s="12"/>
+      <c r="X257" s="12"/>
+      <c r="Y257" s="12"/>
+      <c r="Z257" s="12"/>
+      <c r="AA257" s="12"/>
+      <c r="AB257" s="12"/>
+      <c r="AC257" s="12"/>
+      <c r="AD257" s="12"/>
+      <c r="AE257" s="12"/>
+    </row>
+    <row r="258" spans="1:31">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="15"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="20"/>
+      <c r="H258" s="15"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="18"/>
+      <c r="L258" s="14"/>
+      <c r="M258" s="14"/>
+      <c r="N258" s="14"/>
+      <c r="O258" s="14"/>
+      <c r="P258" s="14"/>
+      <c r="Q258" s="14"/>
+      <c r="R258" s="12"/>
+      <c r="S258" s="12"/>
+      <c r="T258" s="12"/>
+      <c r="U258" s="12"/>
+      <c r="V258" s="12"/>
+      <c r="W258" s="12"/>
+      <c r="X258" s="12"/>
+      <c r="Y258" s="12"/>
+      <c r="Z258" s="12"/>
+      <c r="AA258" s="12"/>
+      <c r="AB258" s="12"/>
+      <c r="AC258" s="12"/>
+      <c r="AD258" s="12"/>
+      <c r="AE258" s="12"/>
+    </row>
+    <row r="259" spans="1:31">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="20"/>
+      <c r="H259" s="15"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="18"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="14"/>
+      <c r="N259" s="14"/>
+      <c r="O259" s="14"/>
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+      <c r="R259" s="12"/>
+      <c r="S259" s="12"/>
+      <c r="T259" s="12"/>
+      <c r="U259" s="12"/>
+      <c r="V259" s="12"/>
+      <c r="W259" s="12"/>
+      <c r="X259" s="12"/>
+      <c r="Y259" s="12"/>
+      <c r="Z259" s="12"/>
+      <c r="AA259" s="12"/>
+      <c r="AB259" s="12"/>
+      <c r="AC259" s="12"/>
+      <c r="AD259" s="12"/>
+      <c r="AE259" s="12"/>
+    </row>
+    <row r="260" spans="1:31">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="16"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="15"/>
+      <c r="I260" s="17"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="18"/>
+      <c r="L260" s="14"/>
+      <c r="M260" s="14"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="14"/>
+      <c r="P260" s="14"/>
+      <c r="Q260" s="14"/>
+      <c r="R260" s="12"/>
+      <c r="S260" s="12"/>
+      <c r="T260" s="12"/>
+      <c r="U260" s="12"/>
+      <c r="V260" s="12"/>
+      <c r="W260" s="12"/>
+      <c r="X260" s="12"/>
+      <c r="Y260" s="12"/>
+      <c r="Z260" s="12"/>
+      <c r="AA260" s="12"/>
+      <c r="AB260" s="12"/>
+      <c r="AC260" s="12"/>
+      <c r="AD260" s="12"/>
+      <c r="AE260" s="12"/>
+    </row>
+    <row r="261" spans="1:31">
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="15"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="18"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="14"/>
+      <c r="N261" s="14"/>
+      <c r="O261" s="14"/>
+      <c r="P261" s="14"/>
+      <c r="Q261" s="14"/>
+      <c r="R261" s="12"/>
+      <c r="S261" s="12"/>
+      <c r="T261" s="12"/>
+      <c r="U261" s="12"/>
+      <c r="V261" s="12"/>
+      <c r="W261" s="12"/>
+      <c r="X261" s="12"/>
+      <c r="Y261" s="12"/>
+      <c r="Z261" s="12"/>
+      <c r="AA261" s="12"/>
+      <c r="AB261" s="12"/>
+      <c r="AC261" s="12"/>
+      <c r="AD261" s="12"/>
+      <c r="AE261" s="12"/>
+    </row>
+    <row r="262" spans="1:31">
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="15"/>
+      <c r="I262" s="17"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="18"/>
+      <c r="L262" s="14"/>
+      <c r="M262" s="14"/>
+      <c r="N262" s="14"/>
+      <c r="O262" s="14"/>
+      <c r="P262" s="14"/>
+      <c r="Q262" s="14"/>
+      <c r="R262" s="12"/>
+      <c r="S262" s="12"/>
+      <c r="T262" s="12"/>
+      <c r="U262" s="12"/>
+      <c r="V262" s="12"/>
+      <c r="W262" s="12"/>
+      <c r="X262" s="12"/>
+      <c r="Y262" s="12"/>
+      <c r="Z262" s="12"/>
+      <c r="AA262" s="12"/>
+      <c r="AB262" s="12"/>
+      <c r="AC262" s="12"/>
+      <c r="AD262" s="12"/>
+      <c r="AE262" s="12"/>
+    </row>
+    <row r="263" spans="1:31">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="15"/>
+      <c r="I263" s="17"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="18"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="14"/>
+      <c r="N263" s="14"/>
+      <c r="O263" s="14"/>
+      <c r="P263" s="14"/>
+      <c r="Q263" s="14"/>
+      <c r="R263" s="12"/>
+      <c r="S263" s="12"/>
+      <c r="T263" s="12"/>
+      <c r="U263" s="12"/>
+      <c r="V263" s="12"/>
+      <c r="W263" s="12"/>
+      <c r="X263" s="12"/>
+      <c r="Y263" s="12"/>
+      <c r="Z263" s="12"/>
+      <c r="AA263" s="12"/>
+      <c r="AB263" s="12"/>
+      <c r="AC263" s="12"/>
+      <c r="AD263" s="12"/>
+      <c r="AE263" s="12"/>
+    </row>
+    <row r="264" spans="1:31">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="16"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="15"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="18"/>
+      <c r="L264" s="14"/>
+      <c r="M264" s="14"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="14"/>
+      <c r="P264" s="14"/>
+      <c r="Q264" s="14"/>
+      <c r="R264" s="12"/>
+      <c r="S264" s="12"/>
+      <c r="T264" s="12"/>
+      <c r="U264" s="12"/>
+      <c r="V264" s="12"/>
+      <c r="W264" s="12"/>
+      <c r="X264" s="12"/>
+      <c r="Y264" s="12"/>
+      <c r="Z264" s="12"/>
+      <c r="AA264" s="12"/>
+      <c r="AB264" s="12"/>
+      <c r="AC264" s="12"/>
+      <c r="AD264" s="12"/>
+      <c r="AE264" s="12"/>
+    </row>
+    <row r="265" spans="1:31">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="16"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="15"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="18"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="14"/>
+      <c r="N265" s="14"/>
+      <c r="O265" s="14"/>
+      <c r="P265" s="14"/>
+      <c r="Q265" s="14"/>
+      <c r="R265" s="12"/>
+      <c r="S265" s="12"/>
+      <c r="T265" s="12"/>
+      <c r="U265" s="12"/>
+      <c r="V265" s="12"/>
+      <c r="W265" s="12"/>
+      <c r="X265" s="12"/>
+      <c r="Y265" s="12"/>
+      <c r="Z265" s="12"/>
+      <c r="AA265" s="12"/>
+      <c r="AB265" s="12"/>
+      <c r="AC265" s="12"/>
+      <c r="AD265" s="12"/>
+      <c r="AE265" s="12"/>
+    </row>
+    <row r="266" spans="1:31">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="18"/>
+      <c r="L266" s="14"/>
+      <c r="M266" s="14"/>
+      <c r="N266" s="14"/>
+      <c r="O266" s="14"/>
+      <c r="P266" s="14"/>
+      <c r="Q266" s="14"/>
+      <c r="R266" s="12"/>
+      <c r="S266" s="12"/>
+      <c r="T266" s="12"/>
+      <c r="U266" s="12"/>
+      <c r="V266" s="12"/>
+      <c r="W266" s="12"/>
+      <c r="X266" s="12"/>
+      <c r="Y266" s="12"/>
+      <c r="Z266" s="12"/>
+      <c r="AA266" s="12"/>
+      <c r="AB266" s="12"/>
+      <c r="AC266" s="12"/>
+      <c r="AD266" s="12"/>
+      <c r="AE266" s="12"/>
+    </row>
+    <row r="267" spans="1:31">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="15"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="18"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
+      <c r="P267" s="14"/>
+      <c r="Q267" s="14"/>
+      <c r="R267" s="12"/>
+      <c r="S267" s="12"/>
+      <c r="T267" s="12"/>
+      <c r="U267" s="12"/>
+      <c r="V267" s="12"/>
+      <c r="W267" s="12"/>
+      <c r="X267" s="12"/>
+      <c r="Y267" s="12"/>
+      <c r="Z267" s="12"/>
+      <c r="AA267" s="12"/>
+      <c r="AB267" s="12"/>
+      <c r="AC267" s="12"/>
+      <c r="AD267" s="12"/>
+      <c r="AE267" s="12"/>
+    </row>
+    <row r="268" spans="1:31">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="16"/>
+      <c r="D268" s="15"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="15"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="18"/>
+      <c r="L268" s="14"/>
+      <c r="M268" s="14"/>
+      <c r="N268" s="14"/>
+      <c r="O268" s="14"/>
+      <c r="P268" s="14"/>
+      <c r="Q268" s="14"/>
+      <c r="R268" s="12"/>
+      <c r="S268" s="12"/>
+      <c r="T268" s="12"/>
+      <c r="U268" s="12"/>
+      <c r="V268" s="12"/>
+      <c r="W268" s="12"/>
+      <c r="X268" s="12"/>
+      <c r="Y268" s="12"/>
+      <c r="Z268" s="12"/>
+      <c r="AA268" s="12"/>
+      <c r="AB268" s="12"/>
+      <c r="AC268" s="12"/>
+      <c r="AD268" s="12"/>
+      <c r="AE268" s="12"/>
+    </row>
+    <row r="269" spans="1:31">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="15"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="18"/>
+      <c r="L269" s="14"/>
+      <c r="M269" s="14"/>
+      <c r="N269" s="14"/>
+      <c r="O269" s="14"/>
+      <c r="P269" s="14"/>
+      <c r="Q269" s="14"/>
+      <c r="R269" s="12"/>
+      <c r="S269" s="12"/>
+      <c r="T269" s="12"/>
+      <c r="U269" s="12"/>
+      <c r="V269" s="12"/>
+      <c r="W269" s="12"/>
+      <c r="X269" s="12"/>
+      <c r="Y269" s="12"/>
+      <c r="Z269" s="12"/>
+      <c r="AA269" s="12"/>
+      <c r="AB269" s="12"/>
+      <c r="AC269" s="12"/>
+      <c r="AD269" s="12"/>
+      <c r="AE269" s="12"/>
+    </row>
+    <row r="270" spans="1:31">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="15"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="15"/>
+      <c r="I270" s="17"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="18"/>
+      <c r="L270" s="14"/>
+      <c r="M270" s="14"/>
+      <c r="N270" s="14"/>
+      <c r="O270" s="14"/>
+      <c r="P270" s="14"/>
+      <c r="Q270" s="14"/>
+      <c r="R270" s="12"/>
+      <c r="S270" s="12"/>
+      <c r="T270" s="12"/>
+      <c r="U270" s="12"/>
+      <c r="V270" s="12"/>
+      <c r="W270" s="12"/>
+      <c r="X270" s="12"/>
+      <c r="Y270" s="12"/>
+      <c r="Z270" s="12"/>
+      <c r="AA270" s="12"/>
+      <c r="AB270" s="12"/>
+      <c r="AC270" s="12"/>
+      <c r="AD270" s="12"/>
+      <c r="AE270" s="12"/>
+    </row>
+    <row r="271" spans="1:31">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="18"/>
+      <c r="L271" s="14"/>
+      <c r="M271" s="14"/>
+      <c r="N271" s="14"/>
+      <c r="O271" s="14"/>
+      <c r="P271" s="14"/>
+      <c r="Q271" s="14"/>
+      <c r="R271" s="12"/>
+      <c r="S271" s="12"/>
+      <c r="T271" s="12"/>
+      <c r="U271" s="12"/>
+      <c r="V271" s="12"/>
+      <c r="W271" s="12"/>
+      <c r="X271" s="12"/>
+      <c r="Y271" s="12"/>
+      <c r="Z271" s="12"/>
+      <c r="AA271" s="12"/>
+      <c r="AB271" s="12"/>
+      <c r="AC271" s="12"/>
+      <c r="AD271" s="12"/>
+      <c r="AE271" s="12"/>
+    </row>
+    <row r="272" spans="1:31">
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="15"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="15"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="18"/>
+      <c r="L272" s="14"/>
+      <c r="M272" s="14"/>
+      <c r="N272" s="14"/>
+      <c r="O272" s="14"/>
+      <c r="P272" s="14"/>
+      <c r="Q272" s="14"/>
+      <c r="R272" s="12"/>
+      <c r="S272" s="12"/>
+      <c r="T272" s="12"/>
+      <c r="U272" s="12"/>
+      <c r="V272" s="12"/>
+      <c r="W272" s="12"/>
+      <c r="X272" s="12"/>
+      <c r="Y272" s="12"/>
+      <c r="Z272" s="12"/>
+      <c r="AA272" s="12"/>
+      <c r="AB272" s="12"/>
+      <c r="AC272" s="12"/>
+      <c r="AD272" s="12"/>
+      <c r="AE272" s="12"/>
+    </row>
+    <row r="273" spans="1:31">
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="16"/>
+      <c r="D273" s="15"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="15"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="18"/>
+      <c r="L273" s="14"/>
+      <c r="M273" s="14"/>
+      <c r="N273" s="14"/>
+      <c r="O273" s="14"/>
+      <c r="P273" s="14"/>
+      <c r="Q273" s="14"/>
+      <c r="R273" s="12"/>
+      <c r="S273" s="12"/>
+      <c r="T273" s="12"/>
+      <c r="U273" s="12"/>
+      <c r="V273" s="12"/>
+      <c r="W273" s="12"/>
+      <c r="X273" s="12"/>
+      <c r="Y273" s="12"/>
+      <c r="Z273" s="12"/>
+      <c r="AA273" s="12"/>
+      <c r="AB273" s="12"/>
+      <c r="AC273" s="12"/>
+      <c r="AD273" s="12"/>
+      <c r="AE273" s="12"/>
+    </row>
+    <row r="274" spans="1:31">
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="16"/>
+      <c r="D274" s="15"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="15"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="18"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="14"/>
+      <c r="N274" s="14"/>
+      <c r="O274" s="14"/>
+      <c r="P274" s="14"/>
+      <c r="Q274" s="14"/>
+      <c r="R274" s="12"/>
+      <c r="S274" s="12"/>
+      <c r="T274" s="12"/>
+      <c r="U274" s="12"/>
+      <c r="V274" s="12"/>
+      <c r="W274" s="12"/>
+      <c r="X274" s="12"/>
+      <c r="Y274" s="12"/>
+      <c r="Z274" s="12"/>
+      <c r="AA274" s="12"/>
+      <c r="AB274" s="12"/>
+      <c r="AC274" s="12"/>
+      <c r="AD274" s="12"/>
+      <c r="AE274" s="12"/>
+    </row>
+    <row r="275" spans="1:31">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="15"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="18"/>
+      <c r="L275" s="14"/>
+      <c r="M275" s="14"/>
+      <c r="N275" s="14"/>
+      <c r="O275" s="14"/>
+      <c r="P275" s="14"/>
+      <c r="Q275" s="14"/>
+      <c r="R275" s="12"/>
+      <c r="S275" s="12"/>
+      <c r="T275" s="12"/>
+      <c r="U275" s="12"/>
+      <c r="V275" s="12"/>
+      <c r="W275" s="12"/>
+      <c r="X275" s="12"/>
+      <c r="Y275" s="12"/>
+      <c r="Z275" s="12"/>
+      <c r="AA275" s="12"/>
+      <c r="AB275" s="12"/>
+      <c r="AC275" s="12"/>
+      <c r="AD275" s="12"/>
+      <c r="AE275" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="K1:M1"/>
